--- a/ANGLE/21.xlsx
+++ b/ANGLE/21.xlsx
@@ -11,13 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725" concurrentCalc="0"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="1091">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="920">
   <si>
     <t>电话号码</t>
   </si>
@@ -25,3278 +24,2765 @@
     <t>number</t>
   </si>
   <si>
-    <t>13270970907</t>
-  </si>
-  <si>
-    <t>13962455866</t>
-  </si>
-  <si>
-    <t>13914069668</t>
-  </si>
-  <si>
-    <t>13962242928</t>
-  </si>
-  <si>
-    <t>13951129715</t>
-  </si>
-  <si>
-    <t>13913604088</t>
-  </si>
-  <si>
-    <t>13912715522</t>
-  </si>
-  <si>
-    <t>13771928875</t>
-  </si>
-  <si>
-    <t>13706226770</t>
-  </si>
-  <si>
-    <t>13606210750</t>
-  </si>
-  <si>
-    <t>13806223681</t>
-  </si>
-  <si>
-    <t>15051516678</t>
-  </si>
-  <si>
-    <t>13962474059</t>
-  </si>
-  <si>
-    <t>13951118405</t>
-  </si>
-  <si>
-    <t>13862060869</t>
-  </si>
-  <si>
-    <t>13063832828</t>
-  </si>
-  <si>
-    <t>15851668886</t>
-  </si>
-  <si>
-    <t>13962169680</t>
-  </si>
-  <si>
-    <t>13962272977</t>
-  </si>
-  <si>
-    <t>13913189765</t>
-  </si>
-  <si>
-    <t>13801568368</t>
-  </si>
-  <si>
-    <t>13584878887</t>
-  </si>
-  <si>
-    <t>15306251231</t>
-  </si>
-  <si>
-    <t>13013897150</t>
-  </si>
-  <si>
-    <t>13013883482</t>
-  </si>
-  <si>
-    <t>13776209832</t>
-  </si>
-  <si>
-    <t>13771980279</t>
-  </si>
-  <si>
-    <t>13906248191</t>
-  </si>
-  <si>
-    <t>13812714288</t>
-  </si>
-  <si>
-    <t>13862119340</t>
-  </si>
-  <si>
-    <t>18261846694</t>
-  </si>
-  <si>
-    <t>13912760872</t>
-  </si>
-  <si>
-    <t>13812783705</t>
-  </si>
-  <si>
-    <t>13606200524</t>
-  </si>
-  <si>
-    <t>13962261560</t>
-  </si>
-  <si>
-    <t>13801552057</t>
-  </si>
-  <si>
-    <t>15862371586</t>
-  </si>
-  <si>
-    <t>13328011801</t>
-  </si>
-  <si>
-    <t>13812841630</t>
-  </si>
-  <si>
-    <t>13862166671</t>
-  </si>
-  <si>
-    <t>13913092408</t>
-  </si>
-  <si>
-    <t>13706137619</t>
-  </si>
-  <si>
-    <t>18912730798</t>
-  </si>
-  <si>
-    <t>15306259086</t>
-  </si>
-  <si>
-    <t>13812752275</t>
-  </si>
-  <si>
-    <t>13773250198</t>
-  </si>
-  <si>
-    <t>13382173385</t>
-  </si>
-  <si>
-    <t>13962518393</t>
-  </si>
-  <si>
-    <t>13218196676</t>
-  </si>
-  <si>
-    <t>13706138940</t>
-  </si>
-  <si>
-    <t>13901553139</t>
-  </si>
-  <si>
-    <t>13701557888</t>
-  </si>
-  <si>
-    <t>13616279107</t>
-  </si>
-  <si>
-    <t>13913183840</t>
-  </si>
-  <si>
-    <t>15962548102</t>
-  </si>
-  <si>
-    <t>13771929399</t>
-  </si>
-  <si>
-    <t>13656256766</t>
-  </si>
-  <si>
-    <t>13812753857</t>
-  </si>
-  <si>
-    <t>13814828383</t>
-  </si>
-  <si>
-    <t>13004509945</t>
-  </si>
-  <si>
-    <t>13913711801</t>
-  </si>
-  <si>
-    <t>13328021618</t>
-  </si>
-  <si>
-    <t>13584435175</t>
-  </si>
-  <si>
-    <t>13776087063</t>
-  </si>
-  <si>
-    <t>13913725865</t>
-  </si>
-  <si>
-    <t>13506218352</t>
-  </si>
-  <si>
-    <t>13616210668</t>
-  </si>
-  <si>
-    <t>13915729867</t>
-  </si>
-  <si>
-    <t>13962100657</t>
-  </si>
-  <si>
-    <t>15195686839</t>
-  </si>
-  <si>
-    <t>13295180998</t>
-  </si>
-  <si>
-    <t>13912766280</t>
-  </si>
-  <si>
-    <t>13812753172</t>
-  </si>
-  <si>
-    <t>13812675793</t>
-  </si>
-  <si>
-    <t>13912621842</t>
-  </si>
-  <si>
-    <t>13906248657</t>
-  </si>
-  <si>
-    <t>13962579705</t>
-  </si>
-  <si>
-    <t>13915716291</t>
-  </si>
-  <si>
-    <t>13773194512</t>
-  </si>
-  <si>
-    <t>13405052430</t>
-  </si>
-  <si>
-    <t>13451516337</t>
-  </si>
-  <si>
-    <t>13862099576</t>
-  </si>
-  <si>
-    <t>13906254928</t>
-  </si>
-  <si>
-    <t>13806207875</t>
-  </si>
-  <si>
-    <t>15051725818</t>
-  </si>
-  <si>
-    <t>13913714826</t>
-  </si>
-  <si>
-    <t>13952416809</t>
-  </si>
-  <si>
-    <t>13506204740</t>
-  </si>
-  <si>
-    <t>13776242223</t>
-  </si>
-  <si>
-    <t>13906265351</t>
-  </si>
-  <si>
-    <t>13914022958</t>
-  </si>
-  <si>
-    <t>13771851721</t>
-  </si>
-  <si>
-    <t>13382538282</t>
-  </si>
-  <si>
-    <t>13862404456</t>
-  </si>
-  <si>
-    <t>13862538838</t>
-  </si>
-  <si>
-    <t>13606223527</t>
-  </si>
-  <si>
-    <t>15150102753</t>
-  </si>
-  <si>
-    <t>13901541556</t>
-  </si>
-  <si>
-    <t>13915535795</t>
-  </si>
-  <si>
-    <t>15150213134</t>
-  </si>
-  <si>
-    <t>13773250587</t>
-  </si>
-  <si>
-    <t>13776166826</t>
-  </si>
-  <si>
-    <t>15950164480</t>
-  </si>
-  <si>
-    <t>13962508090</t>
-  </si>
-  <si>
-    <t>13404244110</t>
-  </si>
-  <si>
-    <t>13771709798</t>
-  </si>
-  <si>
-    <t>13962275399</t>
-  </si>
-  <si>
-    <t>13912729627</t>
-  </si>
-  <si>
-    <t>13773017698</t>
-  </si>
-  <si>
-    <t>13806255809</t>
-  </si>
-  <si>
-    <t>13706226812</t>
-  </si>
-  <si>
-    <t>13906253430</t>
-  </si>
-  <si>
-    <t>13906209179</t>
-  </si>
-  <si>
-    <t>13451990074</t>
-  </si>
-  <si>
-    <t>13776090729</t>
-  </si>
-  <si>
-    <t>13606250855</t>
-  </si>
-  <si>
-    <t>15851488622</t>
-  </si>
-  <si>
-    <t>13584262822</t>
-  </si>
-  <si>
-    <t>13962561139</t>
-  </si>
-  <si>
-    <t>18962507597</t>
-  </si>
-  <si>
-    <t>18706250383</t>
-  </si>
-  <si>
-    <t>18915541286</t>
-  </si>
-  <si>
-    <t>15995992855</t>
-  </si>
-  <si>
-    <t>13606210183</t>
-  </si>
-  <si>
-    <t>13962119786</t>
-  </si>
-  <si>
-    <t>13906257293</t>
-  </si>
-  <si>
-    <t>15250101656</t>
-  </si>
-  <si>
-    <t>13913570181</t>
-  </si>
-  <si>
-    <t>13606246172</t>
-  </si>
-  <si>
-    <t>13771887981</t>
-  </si>
-  <si>
-    <t>13913740722</t>
-  </si>
-  <si>
-    <t>15952410411</t>
-  </si>
-  <si>
-    <t>13511602457</t>
-  </si>
-  <si>
-    <t>15850165200</t>
-  </si>
-  <si>
-    <t>13806253660</t>
-  </si>
-  <si>
-    <t>18913055922</t>
-  </si>
-  <si>
-    <t>13962466803</t>
-  </si>
-  <si>
-    <t>13862131688</t>
-  </si>
-  <si>
-    <t>13913068550</t>
-  </si>
-  <si>
-    <t>13915439495</t>
-  </si>
-  <si>
-    <t>13952419051</t>
-  </si>
-  <si>
-    <t>13906246483</t>
-  </si>
-  <si>
-    <t>13862568200</t>
-  </si>
-  <si>
-    <t>13962573981</t>
-  </si>
-  <si>
-    <t>15850172527</t>
-  </si>
-  <si>
-    <t>13913706590</t>
-  </si>
-  <si>
-    <t>13962555777</t>
-  </si>
-  <si>
-    <t>13092663256</t>
-  </si>
-  <si>
-    <t>13801548629</t>
-  </si>
-  <si>
-    <t>15962580065</t>
-  </si>
-  <si>
-    <t>13862070595</t>
-  </si>
-  <si>
-    <t>13052803603</t>
-  </si>
-  <si>
-    <t>13584862742</t>
-  </si>
-  <si>
-    <t>13584281782</t>
-  </si>
-  <si>
-    <t>15995480681</t>
-  </si>
-  <si>
-    <t>13915523055</t>
-  </si>
-  <si>
-    <t>13906207858</t>
-  </si>
-  <si>
-    <t>13862535966</t>
-  </si>
-  <si>
-    <t>13511619088</t>
-  </si>
-  <si>
-    <t>13375192289</t>
-  </si>
-  <si>
-    <t>13701551816</t>
-  </si>
-  <si>
-    <t>13151468219</t>
-  </si>
-  <si>
-    <t>13646215966</t>
-  </si>
-  <si>
-    <t>18260155840</t>
-  </si>
-  <si>
-    <t>18662331050</t>
-  </si>
-  <si>
-    <t>13013763696</t>
-  </si>
-  <si>
-    <t>18626162600</t>
-  </si>
-  <si>
-    <t>13915501664</t>
-  </si>
-  <si>
-    <t>13405058072</t>
-  </si>
-  <si>
-    <t>13906213401</t>
-  </si>
-  <si>
-    <t>15301550223</t>
-  </si>
-  <si>
-    <t>13915406488</t>
-  </si>
-  <si>
-    <t>13656255571</t>
-  </si>
-  <si>
-    <t>15895610189</t>
-  </si>
-  <si>
-    <t>15150114777</t>
-  </si>
-  <si>
-    <t>13073330602</t>
-  </si>
-  <si>
-    <t>13951101518</t>
-  </si>
-  <si>
-    <t>13951122123</t>
-  </si>
-  <si>
-    <t>13092665705</t>
-  </si>
-  <si>
-    <t>15250140083</t>
-  </si>
-  <si>
-    <t>13656213906</t>
-  </si>
-  <si>
-    <t>13771690298</t>
-  </si>
-  <si>
-    <t>13914082568</t>
-  </si>
-  <si>
-    <t>13915688330</t>
-  </si>
-  <si>
-    <t>13913718228</t>
-  </si>
-  <si>
-    <t>13451763371</t>
-  </si>
-  <si>
-    <t>13706227601</t>
-  </si>
-  <si>
-    <t>13402524000</t>
-  </si>
-  <si>
-    <t>13962101955</t>
-  </si>
-  <si>
-    <t>13906214833</t>
-  </si>
-  <si>
-    <t>15195669984</t>
-  </si>
-  <si>
-    <t>18662166424</t>
-  </si>
-  <si>
-    <t>13601566053</t>
-  </si>
-  <si>
-    <t>13776010352</t>
-  </si>
-  <si>
-    <t>13812777925</t>
-  </si>
-  <si>
-    <t>13915584968</t>
-  </si>
-  <si>
-    <t>13701552778</t>
-  </si>
-  <si>
-    <t>13092637956</t>
-  </si>
-  <si>
-    <t>13962259204</t>
-  </si>
-  <si>
-    <t>13801550330</t>
-  </si>
-  <si>
-    <t>13706251097</t>
-  </si>
-  <si>
-    <t>13901553010</t>
-  </si>
-  <si>
-    <t>13862525321</t>
-  </si>
-  <si>
-    <t>13962570125</t>
-  </si>
-  <si>
-    <t>13862558350</t>
-  </si>
-  <si>
-    <t>13773251026</t>
-  </si>
-  <si>
-    <t>13506201679</t>
-  </si>
-  <si>
-    <t>13915533747</t>
-  </si>
-  <si>
-    <t>13962186070</t>
-  </si>
-  <si>
-    <t>13073310130</t>
-  </si>
-  <si>
-    <t>13701552718</t>
-  </si>
-  <si>
-    <t>13584826119</t>
-  </si>
-  <si>
-    <t>15995734657</t>
-  </si>
-  <si>
-    <t>18913129057</t>
-  </si>
-  <si>
-    <t>18913059868</t>
-  </si>
-  <si>
-    <t>13506223176</t>
-  </si>
-  <si>
-    <t>15162579899</t>
-  </si>
-  <si>
-    <t>13951139170</t>
-  </si>
-  <si>
-    <t>13915415800</t>
-  </si>
-  <si>
-    <t>13814811330</t>
-  </si>
-  <si>
-    <t>13621575368</t>
-  </si>
-  <si>
-    <t>13906130107</t>
-  </si>
-  <si>
-    <t>13656263138</t>
-  </si>
-  <si>
-    <t>13913178882</t>
-  </si>
-  <si>
-    <t>15950000501</t>
-  </si>
-  <si>
-    <t>13906241895</t>
-  </si>
-  <si>
-    <t>18962179291</t>
-  </si>
-  <si>
-    <t>13584836593</t>
-  </si>
-  <si>
-    <t>18913566333</t>
-  </si>
-  <si>
-    <t>13306139605</t>
-  </si>
-  <si>
-    <t>13861321469</t>
-  </si>
-  <si>
-    <t>13915528499</t>
-  </si>
-  <si>
-    <t>13815270359</t>
-  </si>
-  <si>
-    <t>15895413550</t>
-  </si>
-  <si>
-    <t>13806254075</t>
-  </si>
-  <si>
-    <t>13962587319</t>
-  </si>
-  <si>
-    <t>18915720568</t>
-  </si>
-  <si>
-    <t>13862039986</t>
-  </si>
-  <si>
-    <t>13814554973</t>
-  </si>
-  <si>
-    <t>13771985315</t>
-  </si>
-  <si>
-    <t>18550539901</t>
-  </si>
-  <si>
-    <t>13906251138</t>
-  </si>
-  <si>
-    <t>13862531517</t>
-  </si>
-  <si>
-    <t>13962588990</t>
-  </si>
-  <si>
-    <t>13913721525</t>
-  </si>
-  <si>
-    <t>13812875900</t>
-  </si>
-  <si>
-    <t>13801545138</t>
-  </si>
-  <si>
-    <t>13771729639</t>
-  </si>
-  <si>
-    <t>13862534942</t>
-  </si>
-  <si>
-    <t>13145098558</t>
-  </si>
-  <si>
-    <t>13913736722</t>
-  </si>
-  <si>
-    <t>13626199594</t>
-  </si>
-  <si>
-    <t>13962212766</t>
-  </si>
-  <si>
-    <t>13913082331</t>
-  </si>
-  <si>
-    <t>13771630009</t>
-  </si>
-  <si>
-    <t>13402659328</t>
-  </si>
-  <si>
-    <t>13405281373</t>
-  </si>
-  <si>
-    <t>18914079505</t>
-  </si>
-  <si>
-    <t>13451552796</t>
-  </si>
-  <si>
-    <t>13218182568</t>
-  </si>
-  <si>
-    <t>13013794752</t>
-  </si>
-  <si>
-    <t>15995446031</t>
-  </si>
-  <si>
-    <t>15062371993</t>
-  </si>
-  <si>
-    <t>13401422122</t>
-  </si>
-  <si>
-    <t>15206202077</t>
-  </si>
-  <si>
-    <t>13862568159</t>
-  </si>
-  <si>
-    <t>13182621910</t>
-  </si>
-  <si>
-    <t>13616206667</t>
-  </si>
-  <si>
-    <t>15050309338</t>
-  </si>
-  <si>
-    <t>13776203076</t>
-  </si>
-  <si>
-    <t>13912717183</t>
-  </si>
-  <si>
-    <t>13328032266</t>
-  </si>
-  <si>
-    <t>13901559286</t>
-  </si>
-  <si>
-    <t>15962259205</t>
-  </si>
-  <si>
-    <t>18912761893</t>
-  </si>
-  <si>
-    <t>15851590779</t>
-  </si>
-  <si>
-    <t>13656226239</t>
-  </si>
-  <si>
-    <t>13915716677</t>
-  </si>
-  <si>
-    <t>13771679905</t>
-  </si>
-  <si>
-    <t>13862119732</t>
-  </si>
-  <si>
-    <t>13901559373</t>
-  </si>
-  <si>
-    <t>15150115282</t>
-  </si>
-  <si>
-    <t>15250572226</t>
-  </si>
-  <si>
-    <t>13913092685</t>
-  </si>
-  <si>
-    <t>13506253299</t>
-  </si>
-  <si>
-    <t>13706251168</t>
-  </si>
-  <si>
-    <t>13004560872</t>
-  </si>
-  <si>
-    <t>13616241641</t>
-  </si>
-  <si>
-    <t>13773020330</t>
-  </si>
-  <si>
-    <t>13913732831</t>
-  </si>
-  <si>
-    <t>13912734533</t>
-  </si>
-  <si>
-    <t>13301555181</t>
-  </si>
-  <si>
-    <t>13052832579</t>
-  </si>
-  <si>
-    <t>13913749279</t>
-  </si>
-  <si>
-    <t>13402526586</t>
-  </si>
-  <si>
-    <t>15301550922</t>
-  </si>
-  <si>
-    <t>13913073068</t>
-  </si>
-  <si>
-    <t>13205190092</t>
-  </si>
-  <si>
-    <t>13912703825</t>
-  </si>
-  <si>
-    <t>13771829535</t>
-  </si>
-  <si>
-    <t>13801551685</t>
-  </si>
-  <si>
-    <t>13951123011</t>
-  </si>
-  <si>
-    <t>13295160683</t>
-  </si>
-  <si>
-    <t>13771685838</t>
-  </si>
-  <si>
-    <t>13801544750</t>
-  </si>
-  <si>
-    <t>13301545793</t>
-  </si>
-  <si>
-    <t>13771801888</t>
-  </si>
-  <si>
-    <t>15995572999</t>
-  </si>
-  <si>
-    <t>13962503072</t>
-  </si>
-  <si>
-    <t>13962505315</t>
-  </si>
-  <si>
-    <t>18118170860</t>
-  </si>
-  <si>
-    <t>13338025188</t>
-  </si>
-  <si>
-    <t>13862197040</t>
-  </si>
-  <si>
-    <t>18662586185</t>
-  </si>
-  <si>
-    <t>13812709557</t>
-  </si>
-  <si>
-    <t>13962515629</t>
-  </si>
-  <si>
-    <t>13913099012</t>
-  </si>
-  <si>
-    <t>13812700330</t>
-  </si>
-  <si>
-    <t>13606251847</t>
-  </si>
-  <si>
-    <t>13862534115</t>
-  </si>
-  <si>
-    <t>15051486055</t>
-  </si>
-  <si>
-    <t>15995418370</t>
-  </si>
-  <si>
-    <t>13806228160</t>
-  </si>
-  <si>
-    <t>13812934288</t>
-  </si>
-  <si>
-    <t>13901559079</t>
-  </si>
-  <si>
-    <t>15306255562</t>
-  </si>
-  <si>
-    <t>13405678848</t>
-  </si>
-  <si>
-    <t>18796869297</t>
-  </si>
-  <si>
-    <t>15151757868</t>
-  </si>
-  <si>
-    <t>13004596135</t>
-  </si>
-  <si>
-    <t>13771883892</t>
-  </si>
-  <si>
-    <t>13951121977</t>
-  </si>
-  <si>
-    <t>13621568861</t>
-  </si>
-  <si>
-    <t>13706243752</t>
-  </si>
-  <si>
-    <t>13063839308</t>
-  </si>
-  <si>
-    <t>13862219847</t>
-  </si>
-  <si>
-    <t>13814552788</t>
-  </si>
-  <si>
-    <t>15962151360</t>
-  </si>
-  <si>
-    <t>13913510044</t>
-  </si>
-  <si>
-    <t>13625288102</t>
-  </si>
-  <si>
-    <t>18936129579</t>
-  </si>
-  <si>
-    <t>13812639533</t>
-  </si>
-  <si>
-    <t>13656241320</t>
-  </si>
-  <si>
-    <t>15950000085</t>
-  </si>
-  <si>
-    <t>13921966662</t>
-  </si>
-  <si>
-    <t>13301551837</t>
-  </si>
-  <si>
-    <t>13706223961</t>
-  </si>
-  <si>
-    <t>13701414215</t>
-  </si>
-  <si>
-    <t>13701555253</t>
-  </si>
-  <si>
-    <t>13862072170</t>
-  </si>
-  <si>
-    <t>13812775502</t>
-  </si>
-  <si>
-    <t>13915584767</t>
-  </si>
-  <si>
-    <t>13506200303</t>
-  </si>
-  <si>
-    <t>13776248527</t>
-  </si>
-  <si>
-    <t>15162530184</t>
-  </si>
-  <si>
-    <t>13962566666</t>
-  </si>
-  <si>
-    <t>13812717990</t>
-  </si>
-  <si>
-    <t>13771812769</t>
-  </si>
-  <si>
-    <t>13773226361</t>
-  </si>
-  <si>
-    <t>18251163022</t>
-  </si>
-  <si>
-    <t>13812861888</t>
-  </si>
-  <si>
-    <t>15962241411</t>
-  </si>
-  <si>
-    <t>13915585311</t>
-  </si>
-  <si>
-    <t>13222429885</t>
-  </si>
-  <si>
-    <t>13913591710</t>
-  </si>
-  <si>
-    <t>15995515577</t>
-  </si>
-  <si>
-    <t>13913610302</t>
-  </si>
-  <si>
-    <t>13913064305</t>
-  </si>
-  <si>
-    <t>13913549514</t>
-  </si>
-  <si>
-    <t>13913535746</t>
-  </si>
-  <si>
-    <t>13771662872</t>
-  </si>
-  <si>
-    <t>13706259381</t>
-  </si>
-  <si>
-    <t>18914016698</t>
-  </si>
-  <si>
-    <t>13921951200</t>
-  </si>
-  <si>
-    <t>13806256612</t>
-  </si>
-  <si>
-    <t>13862200891</t>
-  </si>
-  <si>
-    <t>13914068192</t>
-  </si>
-  <si>
-    <t>13706207007</t>
-  </si>
-  <si>
-    <t>13601560305</t>
-  </si>
-  <si>
-    <t>18051211729</t>
-  </si>
-  <si>
-    <t>13706251072</t>
-  </si>
-  <si>
-    <t>13601560339</t>
-  </si>
-  <si>
-    <t>13812636263</t>
-  </si>
-  <si>
-    <t>13814883628</t>
-  </si>
-  <si>
-    <t>13771649311</t>
-  </si>
-  <si>
-    <t>13814556773</t>
-  </si>
-  <si>
-    <t>13812667530</t>
-  </si>
-  <si>
-    <t>13906137601</t>
-  </si>
-  <si>
-    <t>15962320258</t>
-  </si>
-  <si>
-    <t>13806225982</t>
-  </si>
-  <si>
-    <t>13776157114</t>
-  </si>
-  <si>
-    <t>13601563208</t>
-  </si>
-  <si>
-    <t>13701557007</t>
-  </si>
-  <si>
-    <t>13771760637</t>
-  </si>
-  <si>
-    <t>13140876609</t>
-  </si>
-  <si>
-    <t>13962558500</t>
-  </si>
-  <si>
-    <t>15150178612</t>
-  </si>
-  <si>
-    <t>13915688999</t>
-  </si>
-  <si>
-    <t>13962573030</t>
-  </si>
-  <si>
-    <t>13901550036</t>
-  </si>
-  <si>
-    <t>13616205839</t>
-  </si>
-  <si>
-    <t>13951105908</t>
-  </si>
-  <si>
-    <t>13962362108</t>
-  </si>
-  <si>
-    <t>13222265905</t>
-  </si>
-  <si>
-    <t>13222216818</t>
-  </si>
-  <si>
-    <t>18112758268</t>
-  </si>
-  <si>
-    <t>13771788012</t>
-  </si>
-  <si>
-    <t>15162517287</t>
-  </si>
-  <si>
-    <t>13301570883</t>
-  </si>
-  <si>
-    <t>13913706208</t>
-  </si>
-  <si>
-    <t>13862508969</t>
-  </si>
-  <si>
-    <t>18626200010</t>
-  </si>
-  <si>
-    <t>13806259568</t>
-  </si>
-  <si>
-    <t>13901566953</t>
-  </si>
-  <si>
-    <t>13732656265</t>
-  </si>
-  <si>
-    <t>13358033801</t>
-  </si>
-  <si>
-    <t>18962555321</t>
-  </si>
-  <si>
-    <t>13506131433</t>
-  </si>
-  <si>
-    <t>13506254665</t>
-  </si>
-  <si>
-    <t>13063886421</t>
-  </si>
-  <si>
-    <t>15006205943</t>
-  </si>
-  <si>
-    <t>13706253519</t>
-  </si>
-  <si>
-    <t>13862550757</t>
-  </si>
-  <si>
-    <t>13812871128</t>
-  </si>
-  <si>
-    <t>13906256287</t>
-  </si>
-  <si>
-    <t>13771691921</t>
-  </si>
-  <si>
-    <t>13584817710</t>
-  </si>
-  <si>
-    <t>13013753333</t>
-  </si>
-  <si>
-    <t>13732655948</t>
-  </si>
-  <si>
-    <t>13913137670</t>
-  </si>
-  <si>
-    <t>13584857216</t>
-  </si>
-  <si>
-    <t>13771938045</t>
-  </si>
-  <si>
-    <t>13776110961</t>
-  </si>
-  <si>
-    <t>15962578888</t>
-  </si>
-  <si>
-    <t>13862525795</t>
-  </si>
-  <si>
-    <t>15906252128</t>
-  </si>
-  <si>
-    <t>18626215877</t>
-  </si>
-  <si>
-    <t>13776158693</t>
-  </si>
-  <si>
-    <t>13915478658</t>
-  </si>
-  <si>
-    <t>13962597959</t>
-  </si>
-  <si>
-    <t>13812790882</t>
-  </si>
-  <si>
-    <t>13962120017</t>
-  </si>
-  <si>
-    <t>18994312022</t>
-  </si>
-  <si>
-    <t>13913730158</t>
-  </si>
-  <si>
-    <t>15995890261</t>
-  </si>
-  <si>
-    <t>15050157184</t>
-  </si>
-  <si>
-    <t>13706256181</t>
-  </si>
-  <si>
-    <t>15358839869</t>
-  </si>
-  <si>
-    <t>13812788723</t>
-  </si>
-  <si>
-    <t>13962548481</t>
-  </si>
-  <si>
-    <t>13906251609</t>
-  </si>
-  <si>
-    <t>13706206567</t>
-  </si>
-  <si>
-    <t>13222203033</t>
-  </si>
-  <si>
-    <t>13906244081</t>
-  </si>
-  <si>
-    <t>13771974701</t>
-  </si>
-  <si>
-    <t>15151553013</t>
-  </si>
-  <si>
-    <t>18962611812</t>
-  </si>
-  <si>
-    <t>13625279075</t>
-  </si>
-  <si>
-    <t>13913135800</t>
-  </si>
-  <si>
-    <t>13912750731</t>
-  </si>
-  <si>
-    <t>15851682333</t>
-  </si>
-  <si>
-    <t>13915539187</t>
-  </si>
-  <si>
-    <t>13913741006</t>
-  </si>
-  <si>
-    <t>13915426268</t>
-  </si>
-  <si>
-    <t>13913733616</t>
-  </si>
-  <si>
-    <t>13801560296</t>
-  </si>
-  <si>
-    <t>13773210969</t>
-  </si>
-  <si>
-    <t>13952415376</t>
-  </si>
-  <si>
-    <t>13914914254</t>
-  </si>
-  <si>
-    <t>13812956302</t>
-  </si>
-  <si>
-    <t>15651116299</t>
-  </si>
-  <si>
-    <t>13913733380</t>
-  </si>
-  <si>
-    <t>18761940586</t>
-  </si>
-  <si>
-    <t>13921969273</t>
-  </si>
-  <si>
-    <t>13913713508</t>
-  </si>
-  <si>
-    <t>13776036452</t>
-  </si>
-  <si>
-    <t>15370396522</t>
-  </si>
-  <si>
-    <t>13862416962</t>
-  </si>
-  <si>
-    <t>13584996543</t>
-  </si>
-  <si>
-    <t>15365300106</t>
-  </si>
-  <si>
-    <t>13506207169</t>
-  </si>
-  <si>
-    <t>13771637353</t>
-  </si>
-  <si>
-    <t>13606205715</t>
-  </si>
-  <si>
-    <t>13913719111</t>
-  </si>
-  <si>
-    <t>13862212509</t>
-  </si>
-  <si>
-    <t>13913567267</t>
-  </si>
-  <si>
-    <t>13606225199</t>
-  </si>
-  <si>
-    <t>13962135355</t>
-  </si>
-  <si>
-    <t>13862128826</t>
-  </si>
-  <si>
-    <t>13506220113</t>
-  </si>
-  <si>
-    <t>13812753205</t>
-  </si>
-  <si>
-    <t>13815251462</t>
-  </si>
-  <si>
-    <t>18962531227</t>
-  </si>
-  <si>
-    <t>13962211258</t>
-  </si>
-  <si>
-    <t>13222278220</t>
-  </si>
-  <si>
-    <t>13962588055</t>
-  </si>
-  <si>
-    <t>18626266822</t>
-  </si>
-  <si>
-    <t>13771627628</t>
-  </si>
-  <si>
-    <t>18012730368</t>
-  </si>
-  <si>
-    <t>13771962229</t>
-  </si>
-  <si>
-    <t>13913735137</t>
-  </si>
-  <si>
-    <t>13962291782</t>
-  </si>
-  <si>
-    <t>15950002111</t>
-  </si>
-  <si>
-    <t>13656204484</t>
-  </si>
-  <si>
-    <t>13402698152</t>
-  </si>
-  <si>
-    <t>13915677690</t>
-  </si>
-  <si>
-    <t>15950073711</t>
-  </si>
-  <si>
-    <t>13901561845</t>
-  </si>
-  <si>
-    <t>13812748748</t>
-  </si>
-  <si>
-    <t>13511619717</t>
-  </si>
-  <si>
-    <t>13962289981</t>
-  </si>
-  <si>
-    <t>13506252988</t>
-  </si>
-  <si>
-    <t>13814879848</t>
-  </si>
-  <si>
-    <t>13913503734</t>
-  </si>
-  <si>
-    <t>13906240256</t>
-  </si>
-  <si>
-    <t>13295138116</t>
-  </si>
-  <si>
-    <t>13913209536</t>
-  </si>
-  <si>
-    <t>13962221861</t>
-  </si>
-  <si>
-    <t>13506219018</t>
-  </si>
-  <si>
-    <t>13962595971</t>
-  </si>
-  <si>
-    <t>13092657973</t>
-  </si>
-  <si>
-    <t>13771832631</t>
-  </si>
-  <si>
-    <t>18913580083</t>
-  </si>
-  <si>
-    <t>13625299866</t>
-  </si>
-  <si>
-    <t>13914002376</t>
-  </si>
-  <si>
-    <t>13906241393</t>
-  </si>
-  <si>
-    <t>13701565173</t>
-  </si>
-  <si>
-    <t>13706251267</t>
-  </si>
-  <si>
-    <t>18912673205</t>
-  </si>
-  <si>
-    <t>13862587386</t>
-  </si>
-  <si>
-    <t>13913136213</t>
-  </si>
-  <si>
-    <t>13913094882</t>
-  </si>
-  <si>
-    <t>13901548122</t>
-  </si>
-  <si>
-    <t>13962553521</t>
-  </si>
-  <si>
-    <t>13402508684</t>
-  </si>
-  <si>
-    <t>13771824414</t>
-  </si>
-  <si>
-    <t>13375166005</t>
-  </si>
-  <si>
-    <t>13862072720</t>
-  </si>
-  <si>
-    <t>13812862972</t>
-  </si>
-  <si>
-    <t>15250502788</t>
-  </si>
-  <si>
-    <t>13222217100</t>
-  </si>
-  <si>
-    <t>13862214783</t>
-  </si>
-  <si>
-    <t>13913515553</t>
-  </si>
-  <si>
-    <t>13962501953</t>
-  </si>
-  <si>
-    <t>13771904333</t>
-  </si>
-  <si>
-    <t>13912769481</t>
-  </si>
-  <si>
-    <t>13182663498</t>
-  </si>
-  <si>
-    <t>13812925888</t>
-  </si>
-  <si>
-    <t>13952413105</t>
-  </si>
-  <si>
-    <t>18913548766</t>
-  </si>
-  <si>
-    <t>13913096977</t>
-  </si>
-  <si>
-    <t>13862537511</t>
-  </si>
-  <si>
-    <t>15162539487</t>
-  </si>
-  <si>
-    <t>13962207321</t>
-  </si>
-  <si>
-    <t>18913067326</t>
-  </si>
-  <si>
-    <t>13621571676</t>
-  </si>
-  <si>
-    <t>13913571173</t>
-  </si>
-  <si>
-    <t>13962567225</t>
-  </si>
-  <si>
-    <t>13771645815</t>
-  </si>
-  <si>
-    <t>13962217118</t>
-  </si>
-  <si>
-    <t>18795494250</t>
-  </si>
-  <si>
-    <t>13771739319</t>
-  </si>
-  <si>
-    <t>13771890160</t>
-  </si>
-  <si>
-    <t>13915564644</t>
-  </si>
-  <si>
-    <t>13915690614</t>
-  </si>
-  <si>
-    <t>13812725305</t>
-  </si>
-  <si>
-    <t>13771665000</t>
-  </si>
-  <si>
-    <t>13806227788</t>
-  </si>
-  <si>
-    <t>13906258333</t>
-  </si>
-  <si>
-    <t>13914087120</t>
-  </si>
-  <si>
-    <t>13962283006</t>
-  </si>
-  <si>
-    <t>13706259025</t>
-  </si>
-  <si>
-    <t>13913054055</t>
-  </si>
-  <si>
-    <t>15962547446</t>
-  </si>
-  <si>
-    <t>15962565777</t>
-  </si>
-  <si>
-    <t>13771933170</t>
-  </si>
-  <si>
-    <t>13901568799</t>
-  </si>
-  <si>
-    <t>13776106702</t>
-  </si>
-  <si>
-    <t>13962258020</t>
-  </si>
-  <si>
-    <t>13073338868</t>
-  </si>
-  <si>
-    <t>13806222727</t>
-  </si>
-  <si>
-    <t>13701550628</t>
-  </si>
-  <si>
-    <t>13375177761</t>
-  </si>
-  <si>
-    <t>13906256279</t>
-  </si>
-  <si>
-    <t>13584287410</t>
-  </si>
-  <si>
-    <t>13862538493</t>
-  </si>
-  <si>
-    <t>13358011198</t>
-  </si>
-  <si>
-    <t>13962160076</t>
-  </si>
-  <si>
-    <t>13862079866</t>
-  </si>
-  <si>
-    <t>15851439467</t>
-  </si>
-  <si>
-    <t>13625277968</t>
-  </si>
-  <si>
-    <t>13584275006</t>
-  </si>
-  <si>
-    <t>13815258948</t>
-  </si>
-  <si>
-    <t>13338037886</t>
-  </si>
-  <si>
-    <t>15995539655</t>
-  </si>
-  <si>
-    <t>13906135891</t>
-  </si>
-  <si>
-    <t>15306256196</t>
-  </si>
-  <si>
-    <t>13646207751</t>
-  </si>
-  <si>
-    <t>13801550963</t>
-  </si>
-  <si>
-    <t>13073376993</t>
-  </si>
-  <si>
-    <t>13862059488</t>
-  </si>
-  <si>
-    <t>13701553361</t>
-  </si>
-  <si>
-    <t>13862528392</t>
-  </si>
-  <si>
-    <t>15306259013</t>
-  </si>
-  <si>
-    <t>13806206032</t>
-  </si>
-  <si>
-    <t>13901562629</t>
-  </si>
-  <si>
-    <t>13962386575</t>
-  </si>
-  <si>
-    <t>13773091192</t>
-  </si>
-  <si>
-    <t>18626192898</t>
-  </si>
-  <si>
-    <t>13771751232</t>
-  </si>
-  <si>
-    <t>13913093333</t>
-  </si>
-  <si>
-    <t>13218188020</t>
-  </si>
-  <si>
-    <t>13912741256</t>
-  </si>
-  <si>
-    <t>13862036966</t>
-  </si>
-  <si>
-    <t>13701541201</t>
-  </si>
-  <si>
-    <t>13814965669</t>
-  </si>
-  <si>
-    <t>13218150898</t>
-  </si>
-  <si>
-    <t>13451743439</t>
-  </si>
-  <si>
-    <t>13862560789</t>
-  </si>
-  <si>
-    <t>18962125413</t>
-  </si>
-  <si>
-    <t>13862314718</t>
-  </si>
-  <si>
-    <t>13951126638</t>
-  </si>
-  <si>
-    <t>13812765836</t>
-  </si>
-  <si>
-    <t>13912722060</t>
-  </si>
-  <si>
-    <t>13616271155</t>
-  </si>
-  <si>
-    <t>13338011261</t>
-  </si>
-  <si>
-    <t>13901563633</t>
-  </si>
-  <si>
-    <t>13962539183</t>
-  </si>
-  <si>
-    <t>15850151448</t>
-  </si>
-  <si>
-    <t>15962465758</t>
-  </si>
-  <si>
-    <t>13506250030</t>
-  </si>
-  <si>
-    <t>18662570541</t>
-  </si>
-  <si>
-    <t>13182636873</t>
-  </si>
-  <si>
-    <t>13915410136</t>
-  </si>
-  <si>
-    <t>13358005161</t>
-  </si>
-  <si>
-    <t>13218195388</t>
-  </si>
-  <si>
-    <t>13913096615</t>
-  </si>
-  <si>
-    <t>13913713423</t>
-  </si>
-  <si>
-    <t>13606255609</t>
-  </si>
-  <si>
-    <t>15599074319</t>
-  </si>
-  <si>
-    <t>13962556072</t>
-  </si>
-  <si>
-    <t>13814830230</t>
-  </si>
-  <si>
-    <t>13771812106</t>
-  </si>
-  <si>
-    <t>13656247790</t>
-  </si>
-  <si>
-    <t>18901557988</t>
-  </si>
-  <si>
-    <t>13912615711</t>
-  </si>
-  <si>
-    <t>13584976541</t>
-  </si>
-  <si>
-    <t>13812689928</t>
-  </si>
-  <si>
-    <t>13151657358</t>
-  </si>
-  <si>
-    <t>13913085677</t>
-  </si>
-  <si>
-    <t>13328027618</t>
-  </si>
-  <si>
-    <t>13606215800</t>
-  </si>
-  <si>
-    <t>13451703880</t>
-  </si>
-  <si>
-    <t>13962283999</t>
-  </si>
-  <si>
-    <t>15995799369</t>
-  </si>
-  <si>
-    <t>13771741863</t>
-  </si>
-  <si>
-    <t>13912736527</t>
-  </si>
-  <si>
-    <t>13862526367</t>
-  </si>
-  <si>
-    <t>13814857541</t>
-  </si>
-  <si>
-    <t>15306258333</t>
-  </si>
-  <si>
-    <t>13812735788</t>
-  </si>
-  <si>
-    <t>18915590100</t>
-  </si>
-  <si>
-    <t>13706259582</t>
-  </si>
-  <si>
-    <t>13913713636</t>
-  </si>
-  <si>
-    <t>13776134957</t>
-  </si>
-  <si>
-    <t>15106251177</t>
-  </si>
-  <si>
-    <t>15995537382</t>
-  </si>
-  <si>
-    <t>15295671551</t>
-  </si>
-  <si>
-    <t>13375151889</t>
-  </si>
-  <si>
-    <t>15150271130</t>
-  </si>
-  <si>
-    <t>15151656050</t>
-  </si>
-  <si>
-    <t>13601568499</t>
-  </si>
-  <si>
-    <t>15851676076</t>
-  </si>
-  <si>
-    <t>13771744690</t>
-  </si>
-  <si>
-    <t>13812787889</t>
-  </si>
-  <si>
-    <t>13771674410</t>
-  </si>
-  <si>
-    <t>13584257182</t>
-  </si>
-  <si>
-    <t>15150181125</t>
-  </si>
-  <si>
-    <t>15862577911</t>
-  </si>
-  <si>
-    <t>18913709196</t>
-  </si>
-  <si>
-    <t>13584467890</t>
-  </si>
-  <si>
-    <t>15062405848</t>
-  </si>
-  <si>
-    <t>13706201577</t>
-  </si>
-  <si>
-    <t>13052869224</t>
-  </si>
-  <si>
-    <t>13656202901</t>
-  </si>
-  <si>
-    <t>13812746092</t>
-  </si>
-  <si>
-    <t>13328018280</t>
-  </si>
-  <si>
-    <t>13584253558</t>
-  </si>
-  <si>
-    <t>13915506768</t>
-  </si>
-  <si>
-    <t>13771968910</t>
-  </si>
-  <si>
-    <t>13913730333</t>
-  </si>
-  <si>
-    <t>13506226301</t>
-  </si>
-  <si>
-    <t>13776132228</t>
-  </si>
-  <si>
-    <t>13913271108</t>
-  </si>
-  <si>
-    <t>13806227503</t>
-  </si>
-  <si>
-    <t>13812763533</t>
-  </si>
-  <si>
-    <t>13063860207</t>
-  </si>
-  <si>
-    <t>13862576843</t>
-  </si>
-  <si>
-    <t>13606208471</t>
-  </si>
-  <si>
-    <t>13913704889</t>
-  </si>
-  <si>
-    <t>13812720030</t>
-  </si>
-  <si>
-    <t>13962219703</t>
-  </si>
-  <si>
-    <t>13063855966</t>
-  </si>
-  <si>
-    <t>15051483682</t>
-  </si>
-  <si>
-    <t>18550018517</t>
-  </si>
-  <si>
-    <t>13901553922</t>
-  </si>
-  <si>
-    <t>13962300619</t>
-  </si>
-  <si>
-    <t>13913190845</t>
-  </si>
-  <si>
-    <t>13912777090</t>
-  </si>
-  <si>
-    <t>13812992515</t>
-  </si>
-  <si>
-    <t>13915693356</t>
-  </si>
-  <si>
-    <t>18806208882</t>
-  </si>
-  <si>
-    <t>18962510611</t>
-  </si>
-  <si>
-    <t>13962150668</t>
-  </si>
-  <si>
-    <t>13812708960</t>
-  </si>
-  <si>
-    <t>13701556028</t>
-  </si>
-  <si>
-    <t>13771789341</t>
-  </si>
-  <si>
-    <t>13912724858</t>
-  </si>
-  <si>
-    <t>13862516504</t>
-  </si>
-  <si>
-    <t>13812608734</t>
-  </si>
-  <si>
-    <t>13913501303</t>
-  </si>
-  <si>
-    <t>13915775767</t>
-  </si>
-  <si>
-    <t>13915506826</t>
-  </si>
-  <si>
-    <t>13962229828</t>
-  </si>
-  <si>
-    <t>15995516638</t>
-  </si>
-  <si>
-    <t>15262321639</t>
-  </si>
-  <si>
-    <t>13915411269</t>
-  </si>
-  <si>
-    <t>18796818308</t>
-  </si>
-  <si>
-    <t>18896706770</t>
-  </si>
-  <si>
-    <t>13584865664</t>
-  </si>
-  <si>
-    <t>15962562120</t>
-  </si>
-  <si>
-    <t>13812672031</t>
-  </si>
-  <si>
-    <t>13862665858</t>
-  </si>
-  <si>
-    <t>13915464575</t>
-  </si>
-  <si>
-    <t>15950957548</t>
-  </si>
-  <si>
-    <t>13906250770</t>
-  </si>
-  <si>
-    <t>13915593282</t>
-  </si>
-  <si>
-    <t>13812988676</t>
-  </si>
-  <si>
-    <t>18261440106</t>
-  </si>
-  <si>
-    <t>13962592939</t>
-  </si>
-  <si>
-    <t>13812893041</t>
-  </si>
-  <si>
-    <t>18915686966</t>
-  </si>
-  <si>
-    <t>13912722087</t>
-  </si>
-  <si>
-    <t>13812708937</t>
-  </si>
-  <si>
-    <t>13952418313</t>
-  </si>
-  <si>
-    <t>13913258337</t>
-  </si>
-  <si>
-    <t>13815251767</t>
-  </si>
-  <si>
-    <t>13222213688</t>
-  </si>
-  <si>
-    <t>15162698130</t>
-  </si>
-  <si>
-    <t>13405182986</t>
-  </si>
-  <si>
-    <t>13862212438</t>
-  </si>
-  <si>
-    <t>13962501423</t>
-  </si>
-  <si>
-    <t>13862512713</t>
-  </si>
-  <si>
-    <t>13915672258</t>
-  </si>
-  <si>
-    <t>13913565518</t>
-  </si>
-  <si>
-    <t>13915633888</t>
-  </si>
-  <si>
-    <t>15962570979</t>
-  </si>
-  <si>
-    <t>13962210799</t>
-  </si>
-  <si>
-    <t>15995950356</t>
-  </si>
-  <si>
-    <t>13913745611</t>
-  </si>
-  <si>
-    <t>13646218186</t>
-  </si>
-  <si>
-    <t>13771818225</t>
-  </si>
-  <si>
-    <t>13584260507</t>
-  </si>
-  <si>
-    <t>13328012387</t>
-  </si>
-  <si>
-    <t>13915424838</t>
-  </si>
-  <si>
-    <t>18915535266</t>
-  </si>
-  <si>
-    <t>13901550645</t>
-  </si>
-  <si>
-    <t>18913131735</t>
-  </si>
-  <si>
-    <t>13962101277</t>
-  </si>
-  <si>
-    <t>13815299336</t>
-  </si>
-  <si>
-    <t>13962570275</t>
-  </si>
-  <si>
-    <t>13962239919</t>
-  </si>
-  <si>
-    <t>13962239336</t>
-  </si>
-  <si>
-    <t>13771664878</t>
-  </si>
-  <si>
-    <t>18625279688</t>
-  </si>
-  <si>
-    <t>15895528973</t>
-  </si>
-  <si>
-    <t>13815255537</t>
-  </si>
-  <si>
-    <t>13073368039</t>
-  </si>
-  <si>
-    <t>13295136230</t>
-  </si>
-  <si>
-    <t>13255163779</t>
-  </si>
-  <si>
-    <t>13616251118</t>
-  </si>
-  <si>
-    <t>13862677695</t>
-  </si>
-  <si>
-    <t>13951126226</t>
-  </si>
-  <si>
-    <t>15950956797</t>
-  </si>
-  <si>
-    <t>13584888532</t>
-  </si>
-  <si>
-    <t>15850840586</t>
-  </si>
-  <si>
-    <t>15862579363</t>
-  </si>
-  <si>
-    <t>13621541948</t>
-  </si>
-  <si>
-    <t>13906214305</t>
-  </si>
-  <si>
-    <t>13814818520</t>
-  </si>
-  <si>
-    <t>13906205866</t>
-  </si>
-  <si>
-    <t>13962215911</t>
-  </si>
-  <si>
-    <t>15851600100</t>
-  </si>
-  <si>
-    <t>13656246425</t>
-  </si>
-  <si>
-    <t>18551194553</t>
-  </si>
-  <si>
-    <t>13962193709</t>
-  </si>
-  <si>
-    <t>13951120152</t>
-  </si>
-  <si>
-    <t>13004563517</t>
-  </si>
-  <si>
-    <t>13906138713</t>
-  </si>
-  <si>
-    <t>15306256839</t>
-  </si>
-  <si>
-    <t>13584916337</t>
-  </si>
-  <si>
-    <t>13601571718</t>
-  </si>
-  <si>
-    <t>13616254775</t>
-  </si>
-  <si>
-    <t>13913292155</t>
-  </si>
-  <si>
-    <t>13812867761</t>
-  </si>
-  <si>
-    <t>13862082010</t>
-  </si>
-  <si>
-    <t>13584958609</t>
-  </si>
-  <si>
-    <t>13771676901</t>
-  </si>
-  <si>
-    <t>13862509707</t>
-  </si>
-  <si>
-    <t>13812826692</t>
-  </si>
-  <si>
-    <t>13906259727</t>
-  </si>
-  <si>
-    <t>13776123915</t>
-  </si>
-  <si>
-    <t>18962212459</t>
-  </si>
-  <si>
-    <t>13962106778</t>
-  </si>
-  <si>
-    <t>13862166070</t>
-  </si>
-  <si>
-    <t>18662533021</t>
-  </si>
-  <si>
-    <t>13962267413</t>
-  </si>
-  <si>
-    <t>13862547913</t>
-  </si>
-  <si>
-    <t>13646204995</t>
-  </si>
-  <si>
-    <t>13952413292</t>
-  </si>
-  <si>
-    <t>13706213833</t>
-  </si>
-  <si>
-    <t>13402643077</t>
-  </si>
-  <si>
-    <t>13182606295</t>
-  </si>
-  <si>
-    <t>13812685909</t>
-  </si>
-  <si>
-    <t>13862233307</t>
-  </si>
-  <si>
-    <t>15962102841</t>
-  </si>
-  <si>
-    <t>13656252598</t>
-  </si>
-  <si>
-    <t>13812745401</t>
-  </si>
-  <si>
-    <t>18912691102</t>
-  </si>
-  <si>
-    <t>13358028891</t>
-  </si>
-  <si>
-    <t>13812640569</t>
-  </si>
-  <si>
-    <t>15962666784</t>
-  </si>
-  <si>
-    <t>13306256363</t>
-  </si>
-  <si>
-    <t>13861330622</t>
-  </si>
-  <si>
-    <t>13862216275</t>
-  </si>
-  <si>
-    <t>15962107038</t>
-  </si>
-  <si>
-    <t>13862226882</t>
-  </si>
-  <si>
-    <t>18913119343</t>
-  </si>
-  <si>
-    <t>13584849375</t>
-  </si>
-  <si>
-    <t>13771868414</t>
-  </si>
-  <si>
-    <t>13913121277</t>
-  </si>
-  <si>
-    <t>13511612106</t>
-  </si>
-  <si>
-    <t>13338003543</t>
-  </si>
-  <si>
-    <t>13706257145</t>
-  </si>
-  <si>
-    <t>15962197045</t>
-  </si>
-  <si>
-    <t>13306240300</t>
-  </si>
-  <si>
-    <t>13915522151</t>
-  </si>
-  <si>
-    <t>13776053039</t>
-  </si>
-  <si>
-    <t>13701546069</t>
-  </si>
-  <si>
-    <t>13771869718</t>
-  </si>
-  <si>
-    <t>13951136688</t>
-  </si>
-  <si>
-    <t>18915511078</t>
-  </si>
-  <si>
-    <t>13814887801</t>
-  </si>
-  <si>
-    <t>13951124820</t>
-  </si>
-  <si>
-    <t>13776161699</t>
-  </si>
-  <si>
-    <t>13912600186</t>
-  </si>
-  <si>
-    <t>13814933324</t>
-  </si>
-  <si>
-    <t>15995881322</t>
-  </si>
-  <si>
-    <t>13951135035</t>
-  </si>
-  <si>
-    <t>13962568878</t>
-  </si>
-  <si>
-    <t>18962561622</t>
-  </si>
-  <si>
-    <t>13913562769</t>
-  </si>
-  <si>
-    <t>13812787623</t>
-  </si>
-  <si>
-    <t>13962500958</t>
-  </si>
-  <si>
-    <t>13962181696</t>
-  </si>
-  <si>
-    <t>13506220166</t>
-  </si>
-  <si>
-    <t>13621560119</t>
-  </si>
-  <si>
-    <t>13906258665</t>
-  </si>
-  <si>
-    <t>13951115285</t>
-  </si>
-  <si>
-    <t>13951136507</t>
-  </si>
-  <si>
-    <t>18914058521</t>
-  </si>
-  <si>
-    <t>13901555081</t>
-  </si>
-  <si>
-    <t>13301552996</t>
-  </si>
-  <si>
-    <t>13912701616</t>
-  </si>
-  <si>
-    <t>13063862262</t>
-  </si>
-  <si>
-    <t>13862075677</t>
-  </si>
-  <si>
-    <t>13913739528</t>
-  </si>
-  <si>
-    <t>13951129785</t>
-  </si>
-  <si>
-    <t>13806229599</t>
-  </si>
-  <si>
-    <t>13701556525</t>
-  </si>
-  <si>
-    <t>13801542513</t>
-  </si>
-  <si>
-    <t>13656210038</t>
-  </si>
-  <si>
-    <t>15851591717</t>
-  </si>
-  <si>
-    <t>13901555913</t>
-  </si>
-  <si>
-    <t>13862200778</t>
-  </si>
-  <si>
-    <t>13771743530</t>
-  </si>
-  <si>
-    <t>18912753122</t>
-  </si>
-  <si>
-    <t>18662199166</t>
-  </si>
-  <si>
-    <t>13814802464</t>
-  </si>
-  <si>
-    <t>13606208171</t>
-  </si>
-  <si>
-    <t>13656230045</t>
-  </si>
-  <si>
-    <t>13584460123</t>
-  </si>
-  <si>
-    <t>13776156660</t>
-  </si>
-  <si>
-    <t>13962100343</t>
-  </si>
-  <si>
-    <t>13915705562</t>
-  </si>
-  <si>
-    <t>13584835985</t>
-  </si>
-  <si>
-    <t>13771894325</t>
-  </si>
-  <si>
-    <t>13776166083</t>
-  </si>
-  <si>
-    <t>13621576445</t>
-  </si>
-  <si>
-    <t>13962188988</t>
-  </si>
-  <si>
-    <t>18112605401</t>
-  </si>
-  <si>
-    <t>13862529206</t>
-  </si>
-  <si>
-    <t>15906206896</t>
-  </si>
-  <si>
-    <t>13701412195</t>
-  </si>
-  <si>
-    <t>13915506622</t>
-  </si>
-  <si>
-    <t>13402699390</t>
-  </si>
-  <si>
-    <t>13913083838</t>
-  </si>
-  <si>
-    <t>13906240960</t>
-  </si>
-  <si>
-    <t>13616251901</t>
-  </si>
-  <si>
-    <t>13862172721</t>
-  </si>
-  <si>
-    <t>13606251018</t>
-  </si>
-  <si>
-    <t>15250461767</t>
-  </si>
-  <si>
-    <t>13812774666</t>
-  </si>
-  <si>
-    <t>13914097551</t>
-  </si>
-  <si>
-    <t>15995753566</t>
-  </si>
-  <si>
-    <t>13962167218</t>
-  </si>
-  <si>
-    <t>13771676717</t>
-  </si>
-  <si>
-    <t>13052800046</t>
-  </si>
-  <si>
-    <t>13951133055</t>
-  </si>
-  <si>
-    <t>13962580891</t>
-  </si>
-  <si>
-    <t>15962197579</t>
-  </si>
-  <si>
-    <t>13812846896</t>
-  </si>
-  <si>
-    <t>18662266795</t>
-  </si>
-  <si>
-    <t>13814872005</t>
-  </si>
-  <si>
-    <t>13405271899</t>
-  </si>
-  <si>
-    <t>13814803082</t>
-  </si>
-  <si>
-    <t>15250299989</t>
-  </si>
-  <si>
-    <t>13338671579</t>
-  </si>
-  <si>
-    <t>13706227271</t>
-  </si>
-  <si>
-    <t>13776284768</t>
-  </si>
-  <si>
-    <t>13506230376</t>
-  </si>
-  <si>
-    <t>15906252482</t>
-  </si>
-  <si>
-    <t>13906244536</t>
-  </si>
-  <si>
-    <t>13771669905</t>
-  </si>
-  <si>
-    <t>13952418566</t>
-  </si>
-  <si>
-    <t>13913608223</t>
-  </si>
-  <si>
-    <t>13913140586</t>
-  </si>
-  <si>
-    <t>13913292123</t>
-  </si>
-  <si>
-    <t>13913599175</t>
-  </si>
-  <si>
-    <t>13621565199</t>
-  </si>
-  <si>
-    <t>13806251673</t>
-  </si>
-  <si>
-    <t>13962388658</t>
-  </si>
-  <si>
-    <t>13656249166</t>
-  </si>
-  <si>
-    <t>13506254317</t>
-  </si>
-  <si>
-    <t>13913526437</t>
-  </si>
-  <si>
-    <t>13646210310</t>
-  </si>
-  <si>
-    <t>13606217910</t>
-  </si>
-  <si>
-    <t>13771738909</t>
-  </si>
-  <si>
-    <t>13962262277</t>
-  </si>
-  <si>
-    <t>13222267699</t>
-  </si>
-  <si>
-    <t>13901559785</t>
-  </si>
-  <si>
-    <t>13962180399</t>
-  </si>
-  <si>
-    <t>13706236318</t>
-  </si>
-  <si>
-    <t>13952413627</t>
-  </si>
-  <si>
-    <t>18915717822</t>
-  </si>
-  <si>
-    <t>13915719333</t>
-  </si>
-  <si>
-    <t>13962464439</t>
-  </si>
-  <si>
-    <t>13771950503</t>
-  </si>
-  <si>
-    <t>13606258121</t>
-  </si>
-  <si>
-    <t>13776252168</t>
-  </si>
-  <si>
-    <t>13270992387</t>
-  </si>
-  <si>
-    <t>13771753510</t>
-  </si>
-  <si>
-    <t>13862199024</t>
-  </si>
-  <si>
-    <t>13771899148</t>
-  </si>
-  <si>
-    <t>15862512217</t>
-  </si>
-  <si>
-    <t>18912705680</t>
-  </si>
-  <si>
-    <t>15151461318</t>
-  </si>
-  <si>
-    <t>13915510931</t>
-  </si>
-  <si>
-    <t>13862595787</t>
-  </si>
-  <si>
-    <t>13962578037</t>
-  </si>
-  <si>
-    <t>13906206592</t>
-  </si>
-  <si>
-    <t>13906247035</t>
-  </si>
-  <si>
-    <t>13701562077</t>
-  </si>
-  <si>
-    <t>13063760139</t>
-  </si>
-  <si>
-    <t>13584289733</t>
-  </si>
-  <si>
-    <t>15995996771</t>
-  </si>
-  <si>
-    <t>13776026703</t>
-  </si>
-  <si>
-    <t>13912780361</t>
-  </si>
-  <si>
-    <t>13913193119</t>
-  </si>
-  <si>
-    <t>13906217426</t>
-  </si>
-  <si>
-    <t>13862529272</t>
-  </si>
-  <si>
-    <t>13913073557</t>
-  </si>
-  <si>
-    <t>13913608365</t>
-  </si>
-  <si>
-    <t>13013885203</t>
-  </si>
-  <si>
-    <t>13862179896</t>
-  </si>
-  <si>
-    <t>13812788900</t>
-  </si>
-  <si>
-    <t>13913077768</t>
-  </si>
-  <si>
-    <t>13814873536</t>
-  </si>
-  <si>
-    <t>13706259052</t>
-  </si>
-  <si>
-    <t>13776259812</t>
-  </si>
-  <si>
-    <t>13906138226</t>
-  </si>
-  <si>
-    <t>13915496041</t>
-  </si>
-  <si>
-    <t>13073368159</t>
-  </si>
-  <si>
-    <t>13914979872</t>
-  </si>
-  <si>
-    <t>13301552080</t>
-  </si>
-  <si>
-    <t>13862549469</t>
-  </si>
-  <si>
-    <t>13616244471</t>
-  </si>
-  <si>
-    <t>13962455918</t>
-  </si>
-  <si>
-    <t>13951108338</t>
-  </si>
-  <si>
-    <t>13915726578</t>
-  </si>
-  <si>
-    <t>13906245615</t>
-  </si>
-  <si>
-    <t>13906241208</t>
-  </si>
-  <si>
-    <t>13906251198</t>
-  </si>
-  <si>
-    <t>13915638891</t>
-  </si>
-  <si>
-    <t>13913231958</t>
-  </si>
-  <si>
-    <t>15250050010</t>
-  </si>
-  <si>
-    <t>13806259085</t>
-  </si>
-  <si>
-    <t>13913718197</t>
-  </si>
-  <si>
-    <t>13401438682</t>
-  </si>
-  <si>
-    <t>13913769258</t>
-  </si>
-  <si>
-    <t>18261687077</t>
-  </si>
-  <si>
-    <t>13962566402</t>
-  </si>
-  <si>
-    <t>13812874148</t>
-  </si>
-  <si>
-    <t>13912707255</t>
-  </si>
-  <si>
-    <t>13771929394</t>
-  </si>
-  <si>
-    <t>13901551351</t>
-  </si>
-  <si>
-    <t>13338012126</t>
-  </si>
-  <si>
-    <t>13951134125</t>
-  </si>
-  <si>
-    <t>18752999186</t>
-  </si>
-  <si>
-    <t>13801559196</t>
-  </si>
-  <si>
-    <t>15850089676</t>
-  </si>
-  <si>
-    <t>13451686663</t>
-  </si>
-  <si>
-    <t>13063767667</t>
-  </si>
-  <si>
-    <t>13773262849</t>
-  </si>
-  <si>
-    <t>13771655549</t>
-  </si>
-  <si>
-    <t>13914029150</t>
-  </si>
-  <si>
-    <t>13776078526</t>
-  </si>
-  <si>
-    <t>13921970698</t>
-  </si>
-  <si>
-    <t>13402617224</t>
-  </si>
-  <si>
-    <t>13906255140</t>
-  </si>
-  <si>
-    <t>13584836683</t>
-  </si>
-  <si>
-    <t>13862172647</t>
-  </si>
-  <si>
-    <t>13862020663</t>
-  </si>
-  <si>
-    <t>13151662118</t>
-  </si>
-  <si>
-    <t>13914018089</t>
-  </si>
-  <si>
-    <t>13913769712</t>
-  </si>
-  <si>
-    <t>13004530238</t>
-  </si>
-  <si>
-    <t>18001546709</t>
-  </si>
-  <si>
-    <t>13915740856</t>
-  </si>
-  <si>
-    <t>13862511313</t>
-  </si>
-  <si>
-    <t>15306252278</t>
-  </si>
-  <si>
-    <t>13776164408</t>
-  </si>
-  <si>
-    <t>18962352081</t>
-  </si>
-  <si>
-    <t>13776132637</t>
-  </si>
-  <si>
-    <t>13812652553</t>
-  </si>
-  <si>
-    <t>13771968024</t>
-  </si>
-  <si>
-    <t>13606254872</t>
-  </si>
-  <si>
-    <t>13901561915</t>
-  </si>
-  <si>
-    <t>13913599812</t>
-  </si>
-  <si>
-    <t>18913099739</t>
-  </si>
-  <si>
-    <t>13063835949</t>
-  </si>
-  <si>
-    <t>13906245900</t>
-  </si>
-  <si>
-    <t>13771847501</t>
-  </si>
-  <si>
-    <t>13771682770</t>
-  </si>
-  <si>
-    <t>18796871969</t>
-  </si>
-  <si>
-    <t>13771874790</t>
-  </si>
-  <si>
-    <t>13771706484</t>
-  </si>
-  <si>
-    <t>13814867731</t>
-  </si>
-  <si>
-    <t>13701553281</t>
-  </si>
-  <si>
-    <t>13776138662</t>
-  </si>
-  <si>
-    <t>13951136818</t>
-  </si>
-  <si>
-    <t>13862669510</t>
-  </si>
-  <si>
-    <t>13806226301</t>
-  </si>
-  <si>
-    <t>18912735686</t>
-  </si>
-  <si>
-    <t>13701560528</t>
-  </si>
-  <si>
-    <t>13776100373</t>
-  </si>
-  <si>
-    <t>13806227206</t>
-  </si>
-  <si>
-    <t>13182463733</t>
-  </si>
-  <si>
-    <t>13915789766</t>
-  </si>
-  <si>
-    <t>15962127730</t>
-  </si>
-  <si>
-    <t>13962542561</t>
-  </si>
-  <si>
-    <t>15962599579</t>
-  </si>
-  <si>
-    <t>13913747548</t>
-  </si>
-  <si>
-    <t>13606253304</t>
-  </si>
-  <si>
-    <t>13915402002</t>
-  </si>
-  <si>
-    <t>13814830125</t>
-  </si>
-  <si>
-    <t>13862168548</t>
-  </si>
-  <si>
-    <t>15862400950</t>
-  </si>
-  <si>
-    <t>13092630789</t>
-  </si>
-  <si>
-    <t>13912781898</t>
-  </si>
-  <si>
-    <t>18862269189</t>
-  </si>
-  <si>
-    <t>13915633000</t>
-  </si>
-  <si>
-    <t>13913079767</t>
-  </si>
-  <si>
-    <t>13913578813</t>
-  </si>
-  <si>
-    <t>13814828130</t>
-  </si>
-  <si>
-    <t>13862516136</t>
-  </si>
-  <si>
-    <t>13004565325</t>
-  </si>
-  <si>
-    <t>18913150076</t>
-  </si>
-  <si>
-    <t>13901551151</t>
+    <t>15995868588</t>
+  </si>
+  <si>
+    <t>15995868685</t>
+  </si>
+  <si>
+    <t>15995868688</t>
+  </si>
+  <si>
+    <t>15995869116</t>
+  </si>
+  <si>
+    <t>15995869435</t>
+  </si>
+  <si>
+    <t>15995870635</t>
+  </si>
+  <si>
+    <t>15995870700</t>
+  </si>
+  <si>
+    <t>15995870905</t>
+  </si>
+  <si>
+    <t>15995871112</t>
+  </si>
+  <si>
+    <t>15995871545</t>
+  </si>
+  <si>
+    <t>15995871586</t>
+  </si>
+  <si>
+    <t>15995871925</t>
+  </si>
+  <si>
+    <t>15995873629</t>
+  </si>
+  <si>
+    <t>15995874422</t>
+  </si>
+  <si>
+    <t>15995874988</t>
+  </si>
+  <si>
+    <t>15995875887</t>
+  </si>
+  <si>
+    <t>15995877073</t>
+  </si>
+  <si>
+    <t>15995877882</t>
+  </si>
+  <si>
+    <t>15995878777</t>
+  </si>
+  <si>
+    <t>15995879352</t>
+  </si>
+  <si>
+    <t>15995880162</t>
+  </si>
+  <si>
+    <t>15995880853</t>
+  </si>
+  <si>
+    <t>15995880933</t>
+  </si>
+  <si>
+    <t>15995880958</t>
+  </si>
+  <si>
+    <t>15995881307</t>
+  </si>
+  <si>
+    <t>15995884218</t>
+  </si>
+  <si>
+    <t>15995884332</t>
+  </si>
+  <si>
+    <t>15995885849</t>
+  </si>
+  <si>
+    <t>15995886289</t>
+  </si>
+  <si>
+    <t>15995886314</t>
+  </si>
+  <si>
+    <t>15995886855</t>
+  </si>
+  <si>
+    <t>15995888235</t>
+  </si>
+  <si>
+    <t>15995888286</t>
+  </si>
+  <si>
+    <t>15995888375</t>
+  </si>
+  <si>
+    <t>15995888955</t>
+  </si>
+  <si>
+    <t>15995890056</t>
+  </si>
+  <si>
+    <t>15995890325</t>
+  </si>
+  <si>
+    <t>15995892930</t>
+  </si>
+  <si>
+    <t>15995893056</t>
+  </si>
+  <si>
+    <t>15995893697</t>
+  </si>
+  <si>
+    <t>15995893834</t>
+  </si>
+  <si>
+    <t>15995895869</t>
+  </si>
+  <si>
+    <t>15995895895</t>
+  </si>
+  <si>
+    <t>15995896708</t>
+  </si>
+  <si>
+    <t>15995897871</t>
+  </si>
+  <si>
+    <t>15995898632</t>
+  </si>
+  <si>
+    <t>15995899063</t>
+  </si>
+  <si>
+    <t>15995899316</t>
+  </si>
+  <si>
+    <t>15995906897</t>
+  </si>
+  <si>
+    <t>15995917587</t>
+  </si>
+  <si>
+    <t>15995928063</t>
+  </si>
+  <si>
+    <t>15995930198</t>
+  </si>
+  <si>
+    <t>15995933392</t>
+  </si>
+  <si>
+    <t>15995934216</t>
+  </si>
+  <si>
+    <t>15995948983</t>
+  </si>
+  <si>
+    <t>15995952433</t>
+  </si>
+  <si>
+    <t>15995954318</t>
+  </si>
+  <si>
+    <t>15995985200</t>
+  </si>
+  <si>
+    <t>15996081248</t>
+  </si>
+  <si>
+    <t>15996110574</t>
+  </si>
+  <si>
+    <t>15996620925</t>
+  </si>
+  <si>
+    <t>15998869134</t>
+  </si>
+  <si>
+    <t>18201123448</t>
+  </si>
+  <si>
+    <t>18201785388</t>
+  </si>
+  <si>
+    <t>18206203600</t>
+  </si>
+  <si>
+    <t>18206209699</t>
+  </si>
+  <si>
+    <t>18206213573</t>
+  </si>
+  <si>
+    <t>18210818110</t>
+  </si>
+  <si>
+    <t>18217293123</t>
+  </si>
+  <si>
+    <t>18217337959</t>
+  </si>
+  <si>
+    <t>18217409469</t>
+  </si>
+  <si>
+    <t>18217580587</t>
+  </si>
+  <si>
+    <t>18221468609</t>
+  </si>
+  <si>
+    <t>18221559303</t>
+  </si>
+  <si>
+    <t>18222530518</t>
+  </si>
+  <si>
+    <t>18248888830</t>
+  </si>
+  <si>
+    <t>18251100155</t>
+  </si>
+  <si>
+    <t>18251119507</t>
+  </si>
+  <si>
+    <t>18251120121</t>
+  </si>
+  <si>
+    <t>18251122737</t>
+  </si>
+  <si>
+    <t>18251122911</t>
+  </si>
+  <si>
+    <t>18251126128</t>
+  </si>
+  <si>
+    <t>18251136867</t>
+  </si>
+  <si>
+    <t>18251140989</t>
+  </si>
+  <si>
+    <t>18251150893</t>
+  </si>
+  <si>
+    <t>18251156508</t>
+  </si>
+  <si>
+    <t>18251170722</t>
+  </si>
+  <si>
+    <t>18251177996</t>
+  </si>
+  <si>
+    <t>18251189837</t>
+  </si>
+  <si>
+    <t>18251197827</t>
+  </si>
+  <si>
+    <t>18251903271</t>
+  </si>
+  <si>
+    <t>18256971012</t>
+  </si>
+  <si>
+    <t>18260101092</t>
+  </si>
+  <si>
+    <t>18260105488</t>
+  </si>
+  <si>
+    <t>18260110195</t>
+  </si>
+  <si>
+    <t>18260110984</t>
+  </si>
+  <si>
+    <t>18260111273</t>
+  </si>
+  <si>
+    <t>18260113757</t>
+  </si>
+  <si>
+    <t>18260115398</t>
+  </si>
+  <si>
+    <t>18260119857</t>
+  </si>
+  <si>
+    <t>18260122393</t>
+  </si>
+  <si>
+    <t>18260125068</t>
+  </si>
+  <si>
+    <t>18260133701</t>
+  </si>
+  <si>
+    <t>18260138193</t>
+  </si>
+  <si>
+    <t>18260144055</t>
+  </si>
+  <si>
+    <t>18260159814</t>
+  </si>
+  <si>
+    <t>18260160339</t>
+  </si>
+  <si>
+    <t>18260165866</t>
+  </si>
+  <si>
+    <t>18260170036</t>
+  </si>
+  <si>
+    <t>18260177150</t>
+  </si>
+  <si>
+    <t>18260180085</t>
+  </si>
+  <si>
+    <t>18260190353</t>
+  </si>
+  <si>
+    <t>18260192610</t>
+  </si>
+  <si>
+    <t>18260195870</t>
+  </si>
+  <si>
+    <t>18260197820</t>
+  </si>
+  <si>
+    <t>18260687697</t>
+  </si>
+  <si>
+    <t>18261416373</t>
+  </si>
+  <si>
+    <t>18261438889</t>
+  </si>
+  <si>
+    <t>18261438936</t>
+  </si>
+  <si>
+    <t>18261452896</t>
+  </si>
+  <si>
+    <t>18261453474</t>
+  </si>
+  <si>
+    <t>18261457961</t>
+  </si>
+  <si>
+    <t>18261458847</t>
+  </si>
+  <si>
+    <t>18261468009</t>
+  </si>
+  <si>
+    <t>18261703050</t>
+  </si>
+  <si>
+    <t>18261707120</t>
+  </si>
+  <si>
+    <t>18261891304</t>
+  </si>
+  <si>
+    <t>18261893701</t>
+  </si>
+  <si>
+    <t>18262011119</t>
+  </si>
+  <si>
+    <t>18262012976</t>
+  </si>
+  <si>
+    <t>18262021920</t>
+  </si>
+  <si>
+    <t>18262027836</t>
+  </si>
+  <si>
+    <t>18262034999</t>
+  </si>
+  <si>
+    <t>18262039961</t>
+  </si>
+  <si>
+    <t>18262040857</t>
+  </si>
+  <si>
+    <t>18262076861</t>
+  </si>
+  <si>
+    <t>18263102699</t>
+  </si>
+  <si>
+    <t>18270317356</t>
+  </si>
+  <si>
+    <t>18277287000</t>
+  </si>
+  <si>
+    <t>18306137187</t>
+  </si>
+  <si>
+    <t>18306139358</t>
+  </si>
+  <si>
+    <t>18317005770</t>
+  </si>
+  <si>
+    <t>18321834660</t>
+  </si>
+  <si>
+    <t>18321909003</t>
+  </si>
+  <si>
+    <t>18321971339</t>
+  </si>
+  <si>
+    <t>18351073419</t>
+  </si>
+  <si>
+    <t>18351113167</t>
+  </si>
+  <si>
+    <t>18351180837</t>
+  </si>
+  <si>
+    <t>18351267595</t>
+  </si>
+  <si>
+    <t>18351627028</t>
+  </si>
+  <si>
+    <t>18352448166</t>
+  </si>
+  <si>
+    <t>18361212888</t>
+  </si>
+  <si>
+    <t>18362638224</t>
+  </si>
+  <si>
+    <t>18362639590</t>
+  </si>
+  <si>
+    <t>18362671507</t>
+  </si>
+  <si>
+    <t>18362674989</t>
+  </si>
+  <si>
+    <t>18362675215</t>
+  </si>
+  <si>
+    <t>18362685107</t>
+  </si>
+  <si>
+    <t>18367186189</t>
+  </si>
+  <si>
+    <t>13962510108</t>
+  </si>
+  <si>
+    <t>13962510197</t>
+  </si>
+  <si>
+    <t>13962510203</t>
+  </si>
+  <si>
+    <t>13962510363</t>
+  </si>
+  <si>
+    <t>13962510390</t>
+  </si>
+  <si>
+    <t>13962510748</t>
+  </si>
+  <si>
+    <t>13962510780</t>
+  </si>
+  <si>
+    <t>13962510788</t>
+  </si>
+  <si>
+    <t>13962511102</t>
+  </si>
+  <si>
+    <t>13962511430</t>
+  </si>
+  <si>
+    <t>13962511628</t>
+  </si>
+  <si>
+    <t>13962511915</t>
+  </si>
+  <si>
+    <t>13962511959</t>
+  </si>
+  <si>
+    <t>13962512035</t>
+  </si>
+  <si>
+    <t>13962512203</t>
+  </si>
+  <si>
+    <t>13962512260</t>
+  </si>
+  <si>
+    <t>13962512840</t>
+  </si>
+  <si>
+    <t>13962513188</t>
+  </si>
+  <si>
+    <t>13962513896</t>
+  </si>
+  <si>
+    <t>13962513924</t>
+  </si>
+  <si>
+    <t>13962514131</t>
+  </si>
+  <si>
+    <t>13962514219</t>
+  </si>
+  <si>
+    <t>13962514380</t>
+  </si>
+  <si>
+    <t>13962514419</t>
+  </si>
+  <si>
+    <t>13962514420</t>
+  </si>
+  <si>
+    <t>13962514519</t>
+  </si>
+  <si>
+    <t>13962515051</t>
+  </si>
+  <si>
+    <t>13962515129</t>
+  </si>
+  <si>
+    <t>13962515245</t>
+  </si>
+  <si>
+    <t>13962515378</t>
+  </si>
+  <si>
+    <t>13962515492</t>
+  </si>
+  <si>
+    <t>13962515503</t>
+  </si>
+  <si>
+    <t>13962515542</t>
+  </si>
+  <si>
+    <t>13962515655</t>
+  </si>
+  <si>
+    <t>13962515662</t>
+  </si>
+  <si>
+    <t>13962516007</t>
+  </si>
+  <si>
+    <t>13962516277</t>
+  </si>
+  <si>
+    <t>13962516316</t>
+  </si>
+  <si>
+    <t>13962516585</t>
+  </si>
+  <si>
+    <t>13962516879</t>
+  </si>
+  <si>
+    <t>13962516996</t>
+  </si>
+  <si>
+    <t>13962517758</t>
+  </si>
+  <si>
+    <t>13962517776</t>
+  </si>
+  <si>
+    <t>13962517906</t>
+  </si>
+  <si>
+    <t>13962519080</t>
+  </si>
+  <si>
+    <t>13962519155</t>
+  </si>
+  <si>
+    <t>13962519156</t>
+  </si>
+  <si>
+    <t>13962519945</t>
+  </si>
+  <si>
+    <t>13962520028</t>
+  </si>
+  <si>
+    <t>13962520069</t>
+  </si>
+  <si>
+    <t>13962520166</t>
+  </si>
+  <si>
+    <t>13962520268</t>
+  </si>
+  <si>
+    <t>13962520278</t>
+  </si>
+  <si>
+    <t>13962520441</t>
+  </si>
+  <si>
+    <t>13962520783</t>
+  </si>
+  <si>
+    <t>13962520911</t>
+  </si>
+  <si>
+    <t>13962521004</t>
+  </si>
+  <si>
+    <t>13962521139</t>
+  </si>
+  <si>
+    <t>13962521349</t>
+  </si>
+  <si>
+    <t>13962521526</t>
+  </si>
+  <si>
+    <t>13962521781</t>
+  </si>
+  <si>
+    <t>13962522019</t>
+  </si>
+  <si>
+    <t>13962522449</t>
+  </si>
+  <si>
+    <t>13962522585</t>
+  </si>
+  <si>
+    <t>13962523619</t>
+  </si>
+  <si>
+    <t>13962523627</t>
+  </si>
+  <si>
+    <t>13962523780</t>
+  </si>
+  <si>
+    <t>13962523818</t>
+  </si>
+  <si>
+    <t>13962523965</t>
+  </si>
+  <si>
+    <t>13962524265</t>
+  </si>
+  <si>
+    <t>13962524335</t>
+  </si>
+  <si>
+    <t>13962524418</t>
+  </si>
+  <si>
+    <t>13962524878</t>
+  </si>
+  <si>
+    <t>13962525147</t>
+  </si>
+  <si>
+    <t>13962525899</t>
+  </si>
+  <si>
+    <t>13962525905</t>
+  </si>
+  <si>
+    <t>13962525915</t>
+  </si>
+  <si>
+    <t>13962526201</t>
+  </si>
+  <si>
+    <t>13962527246</t>
+  </si>
+  <si>
+    <t>13962527252</t>
+  </si>
+  <si>
+    <t>13962527516</t>
+  </si>
+  <si>
+    <t>13962527673</t>
+  </si>
+  <si>
+    <t>13962527875</t>
+  </si>
+  <si>
+    <t>13962528020</t>
+  </si>
+  <si>
+    <t>13962528078</t>
+  </si>
+  <si>
+    <t>13962528126</t>
+  </si>
+  <si>
+    <t>13962528176</t>
+  </si>
+  <si>
+    <t>13962528201</t>
+  </si>
+  <si>
+    <t>13962528298</t>
+  </si>
+  <si>
+    <t>13962528332</t>
+  </si>
+  <si>
+    <t>13962528338</t>
+  </si>
+  <si>
+    <t>13962528339</t>
+  </si>
+  <si>
+    <t>13962528376</t>
+  </si>
+  <si>
+    <t>13962528608</t>
+  </si>
+  <si>
+    <t>13962528761</t>
+  </si>
+  <si>
+    <t>13962528881</t>
+  </si>
+  <si>
+    <t>13962529042</t>
+  </si>
+  <si>
+    <t>13962529079</t>
+  </si>
+  <si>
+    <t>13962529353</t>
+  </si>
+  <si>
+    <t>13962529416</t>
+  </si>
+  <si>
+    <t>13962529522</t>
+  </si>
+  <si>
+    <t>13962529647</t>
+  </si>
+  <si>
+    <t>13962529966</t>
+  </si>
+  <si>
+    <t>13962537870</t>
+  </si>
+  <si>
+    <t>13962538814</t>
+  </si>
+  <si>
+    <t>13962544718</t>
+  </si>
+  <si>
+    <t>13962556344</t>
+  </si>
+  <si>
+    <t>13962557677</t>
+  </si>
+  <si>
+    <t>13962562818</t>
+  </si>
+  <si>
+    <t>13962570999</t>
+  </si>
+  <si>
+    <t>13962577971</t>
+  </si>
+  <si>
+    <t>13962578394</t>
+  </si>
+  <si>
+    <t>13962581984</t>
+  </si>
+  <si>
+    <t>13962592756</t>
+  </si>
+  <si>
+    <t>13962596260</t>
+  </si>
+  <si>
+    <t>13962599241</t>
+  </si>
+  <si>
+    <t>13962601486</t>
+  </si>
+  <si>
+    <t>13962602600</t>
+  </si>
+  <si>
+    <t>13962617208</t>
+  </si>
+  <si>
+    <t>13962620021</t>
+  </si>
+  <si>
+    <t>13962621056</t>
+  </si>
+  <si>
+    <t>13962621344</t>
+  </si>
+  <si>
+    <t>13962622258</t>
+  </si>
+  <si>
+    <t>13962626869</t>
+  </si>
+  <si>
+    <t>13962639445</t>
+  </si>
+  <si>
+    <t>13962642029</t>
+  </si>
+  <si>
+    <t>13962642747</t>
+  </si>
+  <si>
+    <t>13962650629</t>
+  </si>
+  <si>
+    <t>13962652370</t>
+  </si>
+  <si>
+    <t>13962654732</t>
+  </si>
+  <si>
+    <t>13962655003</t>
+  </si>
+  <si>
+    <t>13962660055</t>
+  </si>
+  <si>
+    <t>13962673796</t>
+  </si>
+  <si>
+    <t>13962691434</t>
+  </si>
+  <si>
+    <t>13962697115</t>
+  </si>
+  <si>
+    <t>13962713111</t>
+  </si>
+  <si>
+    <t>13962771999</t>
+  </si>
+  <si>
+    <t>13962789868</t>
+  </si>
+  <si>
+    <t>13962808056</t>
+  </si>
+  <si>
+    <t>13962866636</t>
+  </si>
+  <si>
+    <t>13962881380</t>
+  </si>
+  <si>
+    <t>13962904008</t>
+  </si>
+  <si>
+    <t>13962905445</t>
+  </si>
+  <si>
+    <t>13965027946</t>
+  </si>
+  <si>
+    <t>13966226259</t>
+  </si>
+  <si>
+    <t>13966235791</t>
+  </si>
+  <si>
+    <t>13966730413</t>
+  </si>
+  <si>
+    <t>13967707086</t>
+  </si>
+  <si>
+    <t>13967800963</t>
+  </si>
+  <si>
+    <t>13968038964</t>
+  </si>
+  <si>
+    <t>13968131217</t>
+  </si>
+  <si>
+    <t>13968355999</t>
+  </si>
+  <si>
+    <t>13968376470</t>
+  </si>
+  <si>
+    <t>13968549766</t>
+  </si>
+  <si>
+    <t>13970318008</t>
+  </si>
+  <si>
+    <t>13970384888</t>
+  </si>
+  <si>
+    <t>13970501118</t>
+  </si>
+  <si>
+    <t>13973012483</t>
+  </si>
+  <si>
+    <t>13979371378</t>
+  </si>
+  <si>
+    <t>13984895595</t>
+  </si>
+  <si>
+    <t>13986886784</t>
+  </si>
+  <si>
+    <t>13991544213</t>
+  </si>
+  <si>
+    <t>13993136337</t>
+  </si>
+  <si>
+    <t>13993765976</t>
+  </si>
+  <si>
+    <t>13997296967</t>
+  </si>
+  <si>
+    <t>13998187868</t>
+  </si>
+  <si>
+    <t>13999507236</t>
+  </si>
+  <si>
+    <t>13999725881</t>
+  </si>
+  <si>
+    <t>14706218300</t>
+  </si>
+  <si>
+    <t>14796909999</t>
+  </si>
+  <si>
+    <t>15000033113</t>
+  </si>
+  <si>
+    <t>15000052781</t>
+  </si>
+  <si>
+    <t>15000400389</t>
+  </si>
+  <si>
+    <t>15000414107</t>
+  </si>
+  <si>
+    <t>15000589658</t>
+  </si>
+  <si>
+    <t>15000608549</t>
+  </si>
+  <si>
+    <t>15000630168</t>
+  </si>
+  <si>
+    <t>15000722013</t>
+  </si>
+  <si>
+    <t>15001888824</t>
+  </si>
+  <si>
+    <t>15002872948</t>
+  </si>
+  <si>
+    <t>15004618259</t>
+  </si>
+  <si>
+    <t>15005155738</t>
+  </si>
+  <si>
+    <t>15005156870</t>
+  </si>
+  <si>
+    <t>15005184118</t>
+  </si>
+  <si>
+    <t>15006130852</t>
+  </si>
+  <si>
+    <t>15006131722</t>
+  </si>
+  <si>
+    <t>15006133743</t>
+  </si>
+  <si>
+    <t>15006137952</t>
+  </si>
+  <si>
+    <t>15006200013</t>
+  </si>
+  <si>
+    <t>15006203633</t>
+  </si>
+  <si>
+    <t>15006207789</t>
+  </si>
+  <si>
+    <t>15006208349</t>
+  </si>
+  <si>
+    <t>15006208669</t>
+  </si>
+  <si>
+    <t>15006210377</t>
+  </si>
+  <si>
+    <t>15006210656</t>
+  </si>
+  <si>
+    <t>15006211223</t>
+  </si>
+  <si>
+    <t>15006211303</t>
+  </si>
+  <si>
+    <t>15006211383</t>
+  </si>
+  <si>
+    <t>15006211516</t>
+  </si>
+  <si>
+    <t>15006212011</t>
+  </si>
+  <si>
+    <t>15006212042</t>
+  </si>
+  <si>
+    <t>15006213912</t>
+  </si>
+  <si>
+    <t>15006214038</t>
+  </si>
+  <si>
+    <t>15006215891</t>
+  </si>
+  <si>
+    <t>15006216076</t>
+  </si>
+  <si>
+    <t>15006216109</t>
+  </si>
+  <si>
+    <t>15006216791</t>
+  </si>
+  <si>
+    <t>15006217172</t>
+  </si>
+  <si>
+    <t>15006246946</t>
+  </si>
+  <si>
+    <t>15007021189</t>
+  </si>
+  <si>
+    <t>15021095828</t>
+  </si>
+  <si>
+    <t>15021151403</t>
+  </si>
+  <si>
+    <t>15021264639</t>
+  </si>
+  <si>
+    <t>15021285012</t>
+  </si>
+  <si>
+    <t>15021465110</t>
+  </si>
+  <si>
+    <t>15021666349</t>
+  </si>
+  <si>
+    <t>15021814900</t>
+  </si>
+  <si>
+    <t>15022474770</t>
+  </si>
+  <si>
+    <t>15026489765</t>
+  </si>
+  <si>
+    <t>15026567108</t>
+  </si>
+  <si>
+    <t>15026612171</t>
+  </si>
+  <si>
+    <t>15026663063</t>
+  </si>
+  <si>
+    <t>15026690882</t>
+  </si>
+  <si>
+    <t>15041156979</t>
+  </si>
+  <si>
+    <t>15046835945</t>
+  </si>
+  <si>
+    <t>15047467723</t>
+  </si>
+  <si>
+    <t>15050101015</t>
+  </si>
+  <si>
+    <t>15050102808</t>
+  </si>
+  <si>
+    <t>15050103982</t>
+  </si>
+  <si>
+    <t>15050103984</t>
+  </si>
+  <si>
+    <t>15050104249</t>
+  </si>
+  <si>
+    <t>15050104666</t>
+  </si>
+  <si>
+    <t>15050105138</t>
+  </si>
+  <si>
+    <t>15050105995</t>
+  </si>
+  <si>
+    <t>15050106959</t>
+  </si>
+  <si>
+    <t>15050108132</t>
+  </si>
+  <si>
+    <t>15050108717</t>
+  </si>
+  <si>
+    <t>15050110423</t>
+  </si>
+  <si>
+    <t>15050110676</t>
+  </si>
+  <si>
+    <t>15050113680</t>
+  </si>
+  <si>
+    <t>15050118009</t>
+  </si>
+  <si>
+    <t>15050119291</t>
+  </si>
+  <si>
+    <t>15050122226</t>
+  </si>
+  <si>
+    <t>15050123234</t>
+  </si>
+  <si>
+    <t>15050123444</t>
+  </si>
+  <si>
+    <t>15050126570</t>
+  </si>
+  <si>
+    <t>15050129906</t>
+  </si>
+  <si>
+    <t>15050130369</t>
+  </si>
+  <si>
+    <t>15050134865</t>
+  </si>
+  <si>
+    <t>15050136315</t>
+  </si>
+  <si>
+    <t>15050137467</t>
+  </si>
+  <si>
+    <t>15050138277</t>
+  </si>
+  <si>
+    <t>15050140391</t>
+  </si>
+  <si>
+    <t>15050140624</t>
+  </si>
+  <si>
+    <t>15050144128</t>
+  </si>
+  <si>
+    <t>15050146750</t>
+  </si>
+  <si>
+    <t>15050147085</t>
+  </si>
+  <si>
+    <t>15050152480</t>
+  </si>
+  <si>
+    <t>15050155317</t>
+  </si>
+  <si>
+    <t>15050155503</t>
+  </si>
+  <si>
+    <t>15050155755</t>
+  </si>
+  <si>
+    <t>15050159726</t>
+  </si>
+  <si>
+    <t>15050159899</t>
+  </si>
+  <si>
+    <t>15050160211</t>
+  </si>
+  <si>
+    <t>15050164736</t>
+  </si>
+  <si>
+    <t>15050165092</t>
+  </si>
+  <si>
+    <t>15050165843</t>
+  </si>
+  <si>
+    <t>15050166525</t>
+  </si>
+  <si>
+    <t>15050166762</t>
+  </si>
+  <si>
+    <t>15050166826</t>
+  </si>
+  <si>
+    <t>15050168682</t>
+  </si>
+  <si>
+    <t>15050169756</t>
+  </si>
+  <si>
+    <t>15050170830</t>
+  </si>
+  <si>
+    <t>15050172608</t>
+  </si>
+  <si>
+    <t>15050172709</t>
+  </si>
+  <si>
+    <t>15050175133</t>
+  </si>
+  <si>
+    <t>15050175284</t>
+  </si>
+  <si>
+    <t>15050177782</t>
+  </si>
+  <si>
+    <t>15050178053</t>
+  </si>
+  <si>
+    <t>15050178283</t>
+  </si>
+  <si>
+    <t>15050179704</t>
+  </si>
+  <si>
+    <t>15050180105</t>
+  </si>
+  <si>
+    <t>15050185573</t>
+  </si>
+  <si>
+    <t>15050185777</t>
+  </si>
+  <si>
+    <t>15050186108</t>
+  </si>
+  <si>
+    <t>15050188113</t>
+  </si>
+  <si>
+    <t>15050189331</t>
+  </si>
+  <si>
+    <t>15050189835</t>
+  </si>
+  <si>
+    <t>15050190844</t>
+  </si>
+  <si>
+    <t>15050192728</t>
+  </si>
+  <si>
+    <t>15050194822</t>
+  </si>
+  <si>
+    <t>15050196507</t>
+  </si>
+  <si>
+    <t>15050196662</t>
+  </si>
+  <si>
+    <t>15050198816</t>
+  </si>
+  <si>
+    <t>15050199969</t>
+  </si>
+  <si>
+    <t>15050239292</t>
+  </si>
+  <si>
+    <t>15050246993</t>
+  </si>
+  <si>
+    <t>15050262006</t>
+  </si>
+  <si>
+    <t>15050278363</t>
+  </si>
+  <si>
+    <t>15050290656</t>
+  </si>
+  <si>
+    <t>15050303899</t>
+  </si>
+  <si>
+    <t>15050311932</t>
+  </si>
+  <si>
+    <t>15050319979</t>
+  </si>
+  <si>
+    <t>15050384984</t>
+  </si>
+  <si>
+    <t>15050403325</t>
+  </si>
+  <si>
+    <t>15050403650</t>
+  </si>
+  <si>
+    <t>15050404525</t>
+  </si>
+  <si>
+    <t>15050408202</t>
+  </si>
+  <si>
+    <t>15050409360</t>
+  </si>
+  <si>
+    <t>15050411343</t>
+  </si>
+  <si>
+    <t>15050414586</t>
+  </si>
+  <si>
+    <t>15050416159</t>
+  </si>
+  <si>
+    <t>15050419968</t>
+  </si>
+  <si>
+    <t>15050419989</t>
+  </si>
+  <si>
+    <t>15050421147</t>
+  </si>
+  <si>
+    <t>15050422032</t>
+  </si>
+  <si>
+    <t>15050424223</t>
+  </si>
+  <si>
+    <t>15050429658</t>
+  </si>
+  <si>
+    <t>15050430093</t>
+  </si>
+  <si>
+    <t>15050432815</t>
+  </si>
+  <si>
+    <t>15050438009</t>
+  </si>
+  <si>
+    <t>15050438900</t>
+  </si>
+  <si>
+    <t>15050440118</t>
+  </si>
+  <si>
+    <t>15050440227</t>
+  </si>
+  <si>
+    <t>15050442983</t>
+  </si>
+  <si>
+    <t>15050445281</t>
+  </si>
+  <si>
+    <t>15050450303</t>
+  </si>
+  <si>
+    <t>15050450508</t>
+  </si>
+  <si>
+    <t>15050452968</t>
+  </si>
+  <si>
+    <t>15050453777</t>
+  </si>
+  <si>
+    <t>15050456808</t>
+  </si>
+  <si>
+    <t>15050456828</t>
+  </si>
+  <si>
+    <t>15050457567</t>
+  </si>
+  <si>
+    <t>15050458579</t>
+  </si>
+  <si>
+    <t>15050461486</t>
+  </si>
+  <si>
+    <t>15050461777</t>
+  </si>
+  <si>
+    <t>15050463474</t>
+  </si>
+  <si>
+    <t>15050465606</t>
+  </si>
+  <si>
+    <t>15050466053</t>
+  </si>
+  <si>
+    <t>15050469595</t>
+  </si>
+  <si>
+    <t>15050471501</t>
+  </si>
+  <si>
+    <t>15050479702</t>
+  </si>
+  <si>
+    <t>15050480346</t>
+  </si>
+  <si>
+    <t>15050481383</t>
+  </si>
+  <si>
+    <t>15050483166</t>
+  </si>
+  <si>
+    <t>15050483202</t>
+  </si>
+  <si>
+    <t>15050484383</t>
+  </si>
+  <si>
+    <t>15050485535</t>
+  </si>
+  <si>
+    <t>15050486346</t>
+  </si>
+  <si>
+    <t>15050486733</t>
+  </si>
+  <si>
+    <t>15050488356</t>
+  </si>
+  <si>
+    <t>15050488594</t>
+  </si>
+  <si>
+    <t>15050489799</t>
+  </si>
+  <si>
+    <t>15050489886</t>
+  </si>
+  <si>
+    <t>15050498339</t>
+  </si>
+  <si>
+    <t>15050499758</t>
+  </si>
+  <si>
+    <t>15050588517</t>
+  </si>
+  <si>
+    <t>15050669630</t>
+  </si>
+  <si>
+    <t>15050847135</t>
+  </si>
+  <si>
+    <t>15051085021</t>
+  </si>
+  <si>
+    <t>15051364799</t>
+  </si>
+  <si>
+    <t>15051373828</t>
+  </si>
+  <si>
+    <t>15051402400</t>
+  </si>
+  <si>
+    <t>15051404040</t>
+  </si>
+  <si>
+    <t>15051407533</t>
+  </si>
+  <si>
+    <t>15051407689</t>
+  </si>
+  <si>
+    <t>15051407939</t>
+  </si>
+  <si>
+    <t>15051408474</t>
+  </si>
+  <si>
+    <t>15051409135</t>
+  </si>
+  <si>
+    <t>15051410417</t>
+  </si>
+  <si>
+    <t>15051418705</t>
+  </si>
+  <si>
+    <t>15051422687</t>
+  </si>
+  <si>
+    <t>15051428079</t>
+  </si>
+  <si>
+    <t>15051430475</t>
+  </si>
+  <si>
+    <t>15051432480</t>
+  </si>
+  <si>
+    <t>15051432698</t>
+  </si>
+  <si>
+    <t>15051438663</t>
+  </si>
+  <si>
+    <t>15051438827</t>
+  </si>
+  <si>
+    <t>15051440876</t>
+  </si>
+  <si>
+    <t>15051442100</t>
+  </si>
+  <si>
+    <t>15051445476</t>
+  </si>
+  <si>
+    <t>15051448901</t>
+  </si>
+  <si>
+    <t>15051451724</t>
+  </si>
+  <si>
+    <t>15051457667</t>
+  </si>
+  <si>
+    <t>15051458001</t>
+  </si>
+  <si>
+    <t>15051458574</t>
+  </si>
+  <si>
+    <t>15051458965</t>
+  </si>
+  <si>
+    <t>15051459658</t>
+  </si>
+  <si>
+    <t>15051461468</t>
+  </si>
+  <si>
+    <t>15051462193</t>
+  </si>
+  <si>
+    <t>15051463889</t>
+  </si>
+  <si>
+    <t>15051464982</t>
+  </si>
+  <si>
+    <t>15051466601</t>
+  </si>
+  <si>
+    <t>15051467553</t>
+  </si>
+  <si>
+    <t>15051467759</t>
+  </si>
+  <si>
+    <t>15051468364</t>
+  </si>
+  <si>
+    <t>15051469011</t>
+  </si>
+  <si>
+    <t>15051469664</t>
+  </si>
+  <si>
+    <t>15051471400</t>
+  </si>
+  <si>
+    <t>15051471805</t>
+  </si>
+  <si>
+    <t>15051477900</t>
+  </si>
+  <si>
+    <t>15051478370</t>
+  </si>
+  <si>
+    <t>15051502327</t>
+  </si>
+  <si>
+    <t>15051502866</t>
+  </si>
+  <si>
+    <t>15051505855</t>
+  </si>
+  <si>
+    <t>15051505891</t>
+  </si>
+  <si>
+    <t>15051505981</t>
+  </si>
+  <si>
+    <t>15051507397</t>
+  </si>
+  <si>
+    <t>15051507487</t>
+  </si>
+  <si>
+    <t>15051508166</t>
+  </si>
+  <si>
+    <t>15051508463</t>
+  </si>
+  <si>
+    <t>15051508604</t>
+  </si>
+  <si>
+    <t>15051509599</t>
+  </si>
+  <si>
+    <t>15051509713</t>
+  </si>
+  <si>
+    <t>15051509716</t>
+  </si>
+  <si>
+    <t>15051510585</t>
+  </si>
+  <si>
+    <t>15051510818</t>
+  </si>
+  <si>
+    <t>15051511291</t>
+  </si>
+  <si>
+    <t>15051512117</t>
+  </si>
+  <si>
+    <t>15051513777</t>
+  </si>
+  <si>
+    <t>15051513832</t>
+  </si>
+  <si>
+    <t>15051516552</t>
+  </si>
+  <si>
+    <t>15051519222</t>
+  </si>
+  <si>
+    <t>15051519983</t>
+  </si>
+  <si>
+    <t>15051520205</t>
+  </si>
+  <si>
+    <t>15051520586</t>
+  </si>
+  <si>
+    <t>15051520784</t>
+  </si>
+  <si>
+    <t>15051524848</t>
+  </si>
+  <si>
+    <t>15051525343</t>
+  </si>
+  <si>
+    <t>15051525584</t>
+  </si>
+  <si>
+    <t>15051526175</t>
+  </si>
+  <si>
+    <t>15051526866</t>
+  </si>
+  <si>
+    <t>15051527355</t>
+  </si>
+  <si>
+    <t>15051528812</t>
+  </si>
+  <si>
+    <t>15051529647</t>
+  </si>
+  <si>
+    <t>15051530922</t>
+  </si>
+  <si>
+    <t>15051531807</t>
+  </si>
+  <si>
+    <t>15051532076</t>
+  </si>
+  <si>
+    <t>15051535800</t>
+  </si>
+  <si>
+    <t>15051536727</t>
+  </si>
+  <si>
+    <t>15051537828</t>
+  </si>
+  <si>
+    <t>15051537989</t>
+  </si>
+  <si>
+    <t>15051537998</t>
+  </si>
+  <si>
+    <t>15051539075</t>
+  </si>
+  <si>
+    <t>15051539880</t>
+  </si>
+  <si>
+    <t>15051540079</t>
+  </si>
+  <si>
+    <t>15051546126</t>
+  </si>
+  <si>
+    <t>15051546647</t>
+  </si>
+  <si>
+    <t>15051549578</t>
+  </si>
+  <si>
+    <t>15051550175</t>
+  </si>
+  <si>
+    <t>15051553523</t>
+  </si>
+  <si>
+    <t>15051553564</t>
+  </si>
+  <si>
+    <t>15051553576</t>
+  </si>
+  <si>
+    <t>15051555687</t>
+  </si>
+  <si>
+    <t>15051555870</t>
+  </si>
+  <si>
+    <t>15051557079</t>
+  </si>
+  <si>
+    <t>15051559970</t>
+  </si>
+  <si>
+    <t>15051561349</t>
+  </si>
+  <si>
+    <t>15051565451</t>
+  </si>
+  <si>
+    <t>15051570846</t>
+  </si>
+  <si>
+    <t>15051574585</t>
+  </si>
+  <si>
+    <t>15051575885</t>
+  </si>
+  <si>
+    <t>15051578300</t>
+  </si>
+  <si>
+    <t>15051582928</t>
+  </si>
+  <si>
+    <t>15051582976</t>
+  </si>
+  <si>
+    <t>15051585538</t>
+  </si>
+  <si>
+    <t>15051587260</t>
+  </si>
+  <si>
+    <t>15051588171</t>
+  </si>
+  <si>
+    <t>15051588597</t>
+  </si>
+  <si>
+    <t>15051594061</t>
+  </si>
+  <si>
+    <t>15051595717</t>
+  </si>
+  <si>
+    <t>15051599927</t>
+  </si>
+  <si>
+    <t>15051629880</t>
+  </si>
+  <si>
+    <t>15051668706</t>
+  </si>
+  <si>
+    <t>15051711562</t>
+  </si>
+  <si>
+    <t>15051746447</t>
+  </si>
+  <si>
+    <t>15051920719</t>
+  </si>
+  <si>
+    <t>15052251596</t>
+  </si>
+  <si>
+    <t>15052286960</t>
+  </si>
+  <si>
+    <t>15052318989</t>
+  </si>
+  <si>
+    <t>15052931217</t>
+  </si>
+  <si>
+    <t>15052931236</t>
+  </si>
+  <si>
+    <t>15052940927</t>
+  </si>
+  <si>
+    <t>15056761966</t>
+  </si>
+  <si>
+    <t>15058143316</t>
+  </si>
+  <si>
+    <t>15061537735</t>
+  </si>
+  <si>
+    <t>15061685598</t>
+  </si>
+  <si>
+    <t>15062226768</t>
+  </si>
+  <si>
+    <t>15062302147</t>
+  </si>
+  <si>
+    <t>15062309174</t>
+  </si>
+  <si>
+    <t>15062311921</t>
+  </si>
+  <si>
+    <t>15062321244</t>
+  </si>
+  <si>
+    <t>15062324615</t>
+  </si>
+  <si>
+    <t>15062331590</t>
+  </si>
+  <si>
+    <t>15062332370</t>
+  </si>
+  <si>
+    <t>15062336237</t>
+  </si>
+  <si>
+    <t>15062338575</t>
+  </si>
+  <si>
+    <t>15062344515</t>
+  </si>
+  <si>
+    <t>15062351726</t>
+  </si>
+  <si>
+    <t>15062355151</t>
+  </si>
+  <si>
+    <t>15062355860</t>
+  </si>
+  <si>
+    <t>15062355966</t>
+  </si>
+  <si>
+    <t>15062362154</t>
+  </si>
+  <si>
+    <t>15062364646</t>
+  </si>
+  <si>
+    <t>15062365323</t>
+  </si>
+  <si>
+    <t>15062367602</t>
+  </si>
+  <si>
+    <t>15062373217</t>
+  </si>
+  <si>
+    <t>15062373261</t>
+  </si>
+  <si>
+    <t>15062376510</t>
+  </si>
+  <si>
+    <t>15062384619</t>
+  </si>
+  <si>
+    <t>15062389668</t>
+  </si>
+  <si>
+    <t>15062390609</t>
+  </si>
+  <si>
+    <t>15062391408</t>
+  </si>
+  <si>
+    <t>15062395585</t>
+  </si>
+  <si>
+    <t>15062398630</t>
+  </si>
+  <si>
+    <t>15062399668</t>
+  </si>
+  <si>
+    <t>15062399818</t>
+  </si>
+  <si>
+    <t>15062406065</t>
+  </si>
+  <si>
+    <t>15062406356</t>
+  </si>
+  <si>
+    <t>15062406519</t>
+  </si>
+  <si>
+    <t>15062407322</t>
+  </si>
+  <si>
+    <t>15062407396</t>
+  </si>
+  <si>
+    <t>15062407616</t>
+  </si>
+  <si>
+    <t>15062409103</t>
+  </si>
+  <si>
+    <t>15062409109</t>
+  </si>
+  <si>
+    <t>15062410015</t>
+  </si>
+  <si>
+    <t>15062410162</t>
+  </si>
+  <si>
+    <t>15062410281</t>
+  </si>
+  <si>
+    <t>15062410669</t>
+  </si>
+  <si>
+    <t>15062410769</t>
+  </si>
+  <si>
+    <t>15062416187</t>
+  </si>
+  <si>
+    <t>15062418286</t>
+  </si>
+  <si>
+    <t>15062418960</t>
+  </si>
+  <si>
+    <t>15062420200</t>
+  </si>
+  <si>
+    <t>15062421570</t>
+  </si>
+  <si>
+    <t>15062424099</t>
+  </si>
+  <si>
+    <t>15062427523</t>
+  </si>
+  <si>
+    <t>15062428249</t>
+  </si>
+  <si>
+    <t>15062434708</t>
+  </si>
+  <si>
+    <t>15062435598</t>
+  </si>
+  <si>
+    <t>15062435798</t>
+  </si>
+  <si>
+    <t>15062436178</t>
+  </si>
+  <si>
+    <t>15062437089</t>
+  </si>
+  <si>
+    <t>15062438900</t>
+  </si>
+  <si>
+    <t>15062442558</t>
+  </si>
+  <si>
+    <t>15062443449</t>
+  </si>
+  <si>
+    <t>15062445383</t>
+  </si>
+  <si>
+    <t>15062451860</t>
+  </si>
+  <si>
+    <t>15062472232</t>
+  </si>
+  <si>
+    <t>15062513200</t>
+  </si>
+  <si>
+    <t>15062553533</t>
+  </si>
+  <si>
+    <t>15062580850</t>
+  </si>
+  <si>
+    <t>15062585572</t>
+  </si>
+  <si>
+    <t>15062600882</t>
+  </si>
+  <si>
+    <t>13400048953</t>
+  </si>
+  <si>
+    <t>13400582327</t>
+  </si>
+  <si>
+    <t>13401420036</t>
+  </si>
+  <si>
+    <t>13401421250</t>
+  </si>
+  <si>
+    <t>13401432141</t>
+  </si>
+  <si>
+    <t>13401434161</t>
+  </si>
+  <si>
+    <t>13401434552</t>
+  </si>
+  <si>
+    <t>13401434558</t>
+  </si>
+  <si>
+    <t>13401435812</t>
+  </si>
+  <si>
+    <t>13401436825</t>
+  </si>
+  <si>
+    <t>13401438068</t>
+  </si>
+  <si>
+    <t>13401439227</t>
+  </si>
+  <si>
+    <t>13401439490</t>
+  </si>
+  <si>
+    <t>13401440377</t>
+  </si>
+  <si>
+    <t>13401441066</t>
+  </si>
+  <si>
+    <t>13401441280</t>
+  </si>
+  <si>
+    <t>13401442127</t>
+  </si>
+  <si>
+    <t>13401442806</t>
+  </si>
+  <si>
+    <t>13401443131</t>
+  </si>
+  <si>
+    <t>13401443248</t>
+  </si>
+  <si>
+    <t>13401443512</t>
+  </si>
+  <si>
+    <t>13401445855</t>
+  </si>
+  <si>
+    <t>13401446569</t>
+  </si>
+  <si>
+    <t>13401450098</t>
+  </si>
+  <si>
+    <t>13401450298</t>
+  </si>
+  <si>
+    <t>13401451055</t>
+  </si>
+  <si>
+    <t>13401451082</t>
+  </si>
+  <si>
+    <t>13401452526</t>
+  </si>
+  <si>
+    <t>13401452595</t>
+  </si>
+  <si>
+    <t>13401455767</t>
+  </si>
+  <si>
+    <t>13401455919</t>
+  </si>
+  <si>
+    <t>13401456867</t>
+  </si>
+  <si>
+    <t>13401457196</t>
+  </si>
+  <si>
+    <t>13401457838</t>
+  </si>
+  <si>
+    <t>13401460047</t>
+  </si>
+  <si>
+    <t>13401460267</t>
+  </si>
+  <si>
+    <t>13401460842</t>
+  </si>
+  <si>
+    <t>13401460859</t>
+  </si>
+  <si>
+    <t>13401461620</t>
+  </si>
+  <si>
+    <t>13401463046</t>
+  </si>
+  <si>
+    <t>13401465015</t>
+  </si>
+  <si>
+    <t>13401466455</t>
+  </si>
+  <si>
+    <t>13401468890</t>
+  </si>
+  <si>
+    <t>13401469031</t>
+  </si>
+  <si>
+    <t>13401469906</t>
+  </si>
+  <si>
+    <t>13401536763</t>
+  </si>
+  <si>
+    <t>13402026022</t>
+  </si>
+  <si>
+    <t>13402500945</t>
+  </si>
+  <si>
+    <t>13402501182</t>
+  </si>
+  <si>
+    <t>13402502186</t>
+  </si>
+  <si>
+    <t>13402504833</t>
+  </si>
+  <si>
+    <t>13402505539</t>
+  </si>
+  <si>
+    <t>13402506710</t>
+  </si>
+  <si>
+    <t>13402507590</t>
+  </si>
+  <si>
+    <t>13402507596</t>
+  </si>
+  <si>
+    <t>13402508012</t>
+  </si>
+  <si>
+    <t>13402508132</t>
+  </si>
+  <si>
+    <t>13402508504</t>
+  </si>
+  <si>
+    <t>13402508696</t>
+  </si>
+  <si>
+    <t>13402509015</t>
+  </si>
+  <si>
+    <t>13402509181</t>
+  </si>
+  <si>
+    <t>13402509488</t>
+  </si>
+  <si>
+    <t>13402509518</t>
+  </si>
+  <si>
+    <t>13402509959</t>
+  </si>
+  <si>
+    <t>13402509963</t>
+  </si>
+  <si>
+    <t>13402510381</t>
+  </si>
+  <si>
+    <t>13402510692</t>
+  </si>
+  <si>
+    <t>13402510760</t>
+  </si>
+  <si>
+    <t>13402511036</t>
+  </si>
+  <si>
+    <t>13402512303</t>
+  </si>
+  <si>
+    <t>13402513530</t>
+  </si>
+  <si>
+    <t>13402513722</t>
+  </si>
+  <si>
+    <t>13402513919</t>
+  </si>
+  <si>
+    <t>13402513995</t>
+  </si>
+  <si>
+    <t>13402515150</t>
+  </si>
+  <si>
+    <t>13402517741</t>
+  </si>
+  <si>
+    <t>13402519097</t>
+  </si>
+  <si>
+    <t>13402521578</t>
+  </si>
+  <si>
+    <t>13402522208</t>
+  </si>
+  <si>
+    <t>13402522786</t>
+  </si>
+  <si>
+    <t>13402525567</t>
+  </si>
+  <si>
+    <t>13402529053</t>
+  </si>
+  <si>
+    <t>13402529910</t>
+  </si>
+  <si>
+    <t>13402529958</t>
+  </si>
+  <si>
+    <t>13402530880</t>
+  </si>
+  <si>
+    <t>13402532808</t>
+  </si>
+  <si>
+    <t>13402532968</t>
+  </si>
+  <si>
+    <t>13402533101</t>
+  </si>
+  <si>
+    <t>13402535302</t>
+  </si>
+  <si>
+    <t>13402536101</t>
+  </si>
+  <si>
+    <t>13402536202</t>
+  </si>
+  <si>
+    <t>13402543267</t>
+  </si>
+  <si>
+    <t>13402543903</t>
+  </si>
+  <si>
+    <t>13402544300</t>
+  </si>
+  <si>
+    <t>13402544826</t>
+  </si>
+  <si>
+    <t>13402545041</t>
+  </si>
+  <si>
+    <t>13402545780</t>
+  </si>
+  <si>
+    <t>13402546266</t>
+  </si>
+  <si>
+    <t>13402547266</t>
+  </si>
+  <si>
+    <t>13402548138</t>
+  </si>
+  <si>
+    <t>13402549793</t>
+  </si>
+  <si>
+    <t>13402551472</t>
+  </si>
+  <si>
+    <t>13402554111</t>
+  </si>
+  <si>
+    <t>13402555785</t>
+  </si>
+  <si>
+    <t>13402555789</t>
+  </si>
+  <si>
+    <t>13402556505</t>
+  </si>
+  <si>
+    <t>13402556656</t>
+  </si>
+  <si>
+    <t>13402556676</t>
+  </si>
+  <si>
+    <t>13402559126</t>
+  </si>
+  <si>
+    <t>13402560025</t>
+  </si>
+  <si>
+    <t>13402560513</t>
+  </si>
+  <si>
+    <t>13402560837</t>
+  </si>
+  <si>
+    <t>13402560902</t>
+  </si>
+  <si>
+    <t>13402562062</t>
+  </si>
+  <si>
+    <t>13402562378</t>
+  </si>
+  <si>
+    <t>13402565303</t>
+  </si>
+  <si>
+    <t>13402565583</t>
+  </si>
+  <si>
+    <t>13402565605</t>
+  </si>
+  <si>
+    <t>13402566080</t>
+  </si>
+  <si>
+    <t>13402566444</t>
+  </si>
+  <si>
+    <t>13402566896</t>
+  </si>
+  <si>
+    <t>13402566981</t>
+  </si>
+  <si>
+    <t>13402567735</t>
+  </si>
+  <si>
+    <t>13402568027</t>
+  </si>
+  <si>
+    <t>13402572263</t>
+  </si>
+  <si>
+    <t>13402579195</t>
+  </si>
+  <si>
+    <t>13402580258</t>
+  </si>
+  <si>
+    <t>13402580679</t>
+  </si>
+  <si>
+    <t>13402581087</t>
+  </si>
+  <si>
+    <t>13402582084</t>
+  </si>
+  <si>
+    <t>13402583062</t>
+  </si>
+  <si>
+    <t>13402583643</t>
+  </si>
+  <si>
+    <t>13402585277</t>
+  </si>
+  <si>
+    <t>13402585431</t>
+  </si>
+  <si>
+    <t>13402585686</t>
+  </si>
+  <si>
+    <t>13402585848</t>
+  </si>
+  <si>
+    <t>13402589223</t>
+  </si>
+  <si>
+    <t>13402590582</t>
+  </si>
+  <si>
+    <t>13402593821</t>
+  </si>
+  <si>
+    <t>13402593885</t>
+  </si>
+  <si>
+    <t>13402595713</t>
+  </si>
+  <si>
+    <t>13402596248</t>
+  </si>
+  <si>
+    <t>13402596953</t>
+  </si>
+  <si>
+    <t>13402597151</t>
+  </si>
+  <si>
+    <t>13402597253</t>
+  </si>
+  <si>
+    <t>13402599682</t>
+  </si>
+  <si>
+    <t>13402603007</t>
+  </si>
+  <si>
+    <t>13402603479</t>
+  </si>
+  <si>
+    <t>13402603535</t>
+  </si>
+  <si>
+    <t>13402603789</t>
+  </si>
+  <si>
+    <t>13402603909</t>
+  </si>
+  <si>
+    <t>13402604553</t>
+  </si>
+  <si>
+    <t>13402605831</t>
+  </si>
+  <si>
+    <t>13402606621</t>
+  </si>
+  <si>
+    <t>13402607606</t>
+  </si>
+  <si>
+    <t>13402608258</t>
+  </si>
+  <si>
+    <t>13402609046</t>
+  </si>
+  <si>
+    <t>13402609517</t>
+  </si>
+  <si>
+    <t>13402612258</t>
+  </si>
+  <si>
+    <t>13402612455</t>
+  </si>
+  <si>
+    <t>13402613799</t>
+  </si>
+  <si>
+    <t>13402613998</t>
+  </si>
+  <si>
+    <t>13402616554</t>
+  </si>
+  <si>
+    <t>13402617184</t>
+  </si>
+  <si>
+    <t>13402619416</t>
+  </si>
+  <si>
+    <t>13402619713</t>
+  </si>
+  <si>
+    <t>13402621208</t>
+  </si>
+  <si>
+    <t>13402621589</t>
+  </si>
+  <si>
+    <t>13402622545</t>
+  </si>
+  <si>
+    <t>13402623185</t>
+  </si>
+  <si>
+    <t>13402623629</t>
+  </si>
+  <si>
+    <t>13402626660</t>
+  </si>
+  <si>
+    <t>13402627660</t>
+  </si>
+  <si>
+    <t>13402632451</t>
+  </si>
+  <si>
+    <t>13402632877</t>
+  </si>
+  <si>
+    <t>13402633923</t>
+  </si>
+  <si>
+    <t>13402635425</t>
+  </si>
+  <si>
+    <t>13402636302</t>
+  </si>
+  <si>
+    <t>13402638567</t>
+  </si>
+  <si>
+    <t>13402639444</t>
+  </si>
+  <si>
+    <t>13402639997</t>
+  </si>
+  <si>
+    <t>13402641135</t>
+  </si>
+  <si>
+    <t>13402641848</t>
+  </si>
+  <si>
+    <t>13402646950</t>
+  </si>
+  <si>
+    <t>13402647150</t>
+  </si>
+  <si>
+    <t>13402648808</t>
+  </si>
+  <si>
+    <t>13402650297</t>
+  </si>
+  <si>
+    <t>13402652970</t>
+  </si>
+  <si>
+    <t>13402653100</t>
+  </si>
+  <si>
+    <t>13402653840</t>
+  </si>
+  <si>
+    <t>13402654586</t>
+  </si>
+  <si>
+    <t>13402654778</t>
+  </si>
+  <si>
+    <t>13402655360</t>
+  </si>
+  <si>
+    <t>13402657723</t>
+  </si>
+  <si>
+    <t>13402658146</t>
+  </si>
+  <si>
+    <t>13402658813</t>
+  </si>
+  <si>
+    <t>13402660058</t>
+  </si>
+  <si>
+    <t>13402662518</t>
+  </si>
+  <si>
+    <t>13402663696</t>
+  </si>
+  <si>
+    <t>13402664866</t>
+  </si>
+  <si>
+    <t>13402665258</t>
+  </si>
+  <si>
+    <t>13402665266</t>
+  </si>
+  <si>
+    <t>13402665927</t>
+  </si>
+  <si>
+    <t>13402666444</t>
+  </si>
+  <si>
+    <t>13402669489</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3308,6 +2794,14 @@
       <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -3341,7 +2835,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3645,10 +3139,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A1091"/>
+  <dimension ref="A1:A920"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -8254,861 +7748,6 @@
     <row r="920" spans="1:1">
       <c r="A920" s="2" t="s">
         <v>919</v>
-      </c>
-    </row>
-    <row r="921" spans="1:1">
-      <c r="A921" s="2" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="922" spans="1:1">
-      <c r="A922" s="2" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="923" spans="1:1">
-      <c r="A923" s="2" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="924" spans="1:1">
-      <c r="A924" s="2" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="925" spans="1:1">
-      <c r="A925" s="2" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="926" spans="1:1">
-      <c r="A926" s="2" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="927" spans="1:1">
-      <c r="A927" s="2" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="928" spans="1:1">
-      <c r="A928" s="2" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="929" spans="1:1">
-      <c r="A929" s="2" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="930" spans="1:1">
-      <c r="A930" s="2" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="931" spans="1:1">
-      <c r="A931" s="2" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="932" spans="1:1">
-      <c r="A932" s="2" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="933" spans="1:1">
-      <c r="A933" s="2" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="934" spans="1:1">
-      <c r="A934" s="2" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="935" spans="1:1">
-      <c r="A935" s="2" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="936" spans="1:1">
-      <c r="A936" s="2" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="937" spans="1:1">
-      <c r="A937" s="2" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="938" spans="1:1">
-      <c r="A938" s="2" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="939" spans="1:1">
-      <c r="A939" s="2" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="940" spans="1:1">
-      <c r="A940" s="2" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="941" spans="1:1">
-      <c r="A941" s="2" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="942" spans="1:1">
-      <c r="A942" s="2" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="943" spans="1:1">
-      <c r="A943" s="2" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="944" spans="1:1">
-      <c r="A944" s="2" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="945" spans="1:1">
-      <c r="A945" s="2" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="946" spans="1:1">
-      <c r="A946" s="2" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="947" spans="1:1">
-      <c r="A947" s="2" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="948" spans="1:1">
-      <c r="A948" s="2" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="949" spans="1:1">
-      <c r="A949" s="2" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="950" spans="1:1">
-      <c r="A950" s="2" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="951" spans="1:1">
-      <c r="A951" s="2" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="952" spans="1:1">
-      <c r="A952" s="2" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="953" spans="1:1">
-      <c r="A953" s="2" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="954" spans="1:1">
-      <c r="A954" s="2" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="955" spans="1:1">
-      <c r="A955" s="2" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="956" spans="1:1">
-      <c r="A956" s="2" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="957" spans="1:1">
-      <c r="A957" s="2" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="958" spans="1:1">
-      <c r="A958" s="2" t="s">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="959" spans="1:1">
-      <c r="A959" s="2" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="960" spans="1:1">
-      <c r="A960" s="2" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="961" spans="1:1">
-      <c r="A961" s="2" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="962" spans="1:1">
-      <c r="A962" s="2" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="963" spans="1:1">
-      <c r="A963" s="2" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="964" spans="1:1">
-      <c r="A964" s="2" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="965" spans="1:1">
-      <c r="A965" s="2" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="966" spans="1:1">
-      <c r="A966" s="2" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="967" spans="1:1">
-      <c r="A967" s="2" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="968" spans="1:1">
-      <c r="A968" s="2" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="969" spans="1:1">
-      <c r="A969" s="2" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="970" spans="1:1">
-      <c r="A970" s="2" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="971" spans="1:1">
-      <c r="A971" s="2" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="972" spans="1:1">
-      <c r="A972" s="2" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="973" spans="1:1">
-      <c r="A973" s="2" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="974" spans="1:1">
-      <c r="A974" s="2" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="975" spans="1:1">
-      <c r="A975" s="2" t="s">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="976" spans="1:1">
-      <c r="A976" s="2" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="977" spans="1:1">
-      <c r="A977" s="2" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="978" spans="1:1">
-      <c r="A978" s="2" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="979" spans="1:1">
-      <c r="A979" s="2" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="980" spans="1:1">
-      <c r="A980" s="2" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="981" spans="1:1">
-      <c r="A981" s="2" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="982" spans="1:1">
-      <c r="A982" s="2" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="983" spans="1:1">
-      <c r="A983" s="2" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="984" spans="1:1">
-      <c r="A984" s="2" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="985" spans="1:1">
-      <c r="A985" s="2" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="986" spans="1:1">
-      <c r="A986" s="2" t="s">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="987" spans="1:1">
-      <c r="A987" s="2" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="988" spans="1:1">
-      <c r="A988" s="2" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="989" spans="1:1">
-      <c r="A989" s="2" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="990" spans="1:1">
-      <c r="A990" s="2" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="991" spans="1:1">
-      <c r="A991" s="2" t="s">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="992" spans="1:1">
-      <c r="A992" s="2" t="s">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="993" spans="1:1">
-      <c r="A993" s="2" t="s">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="994" spans="1:1">
-      <c r="A994" s="2" t="s">
-        <v>993</v>
-      </c>
-    </row>
-    <row r="995" spans="1:1">
-      <c r="A995" s="2" t="s">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="996" spans="1:1">
-      <c r="A996" s="2" t="s">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="997" spans="1:1">
-      <c r="A997" s="2" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="998" spans="1:1">
-      <c r="A998" s="2" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="999" spans="1:1">
-      <c r="A999" s="2" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="1000" spans="1:1">
-      <c r="A1000" s="2" t="s">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="1001" spans="1:1">
-      <c r="A1001" s="2" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="1002" spans="1:1">
-      <c r="A1002" s="2" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="1003" spans="1:1">
-      <c r="A1003" s="2" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="1004" spans="1:1">
-      <c r="A1004" s="2" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="1005" spans="1:1">
-      <c r="A1005" s="2" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="1006" spans="1:1">
-      <c r="A1006" s="2" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="1007" spans="1:1">
-      <c r="A1007" s="2" t="s">
-        <v>1006</v>
-      </c>
-    </row>
-    <row r="1008" spans="1:1">
-      <c r="A1008" s="2" t="s">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="1009" spans="1:1">
-      <c r="A1009" s="2" t="s">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="1010" spans="1:1">
-      <c r="A1010" s="2" t="s">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="1011" spans="1:1">
-      <c r="A1011" s="2" t="s">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="1012" spans="1:1">
-      <c r="A1012" s="2" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="1013" spans="1:1">
-      <c r="A1013" s="2" t="s">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="1014" spans="1:1">
-      <c r="A1014" s="2" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="1015" spans="1:1">
-      <c r="A1015" s="2" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="1016" spans="1:1">
-      <c r="A1016" s="2" t="s">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="1017" spans="1:1">
-      <c r="A1017" s="2" t="s">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="1018" spans="1:1">
-      <c r="A1018" s="2" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="1019" spans="1:1">
-      <c r="A1019" s="2" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="1020" spans="1:1">
-      <c r="A1020" s="2" t="s">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="1021" spans="1:1">
-      <c r="A1021" s="2" t="s">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="1022" spans="1:1">
-      <c r="A1022" s="2" t="s">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="1023" spans="1:1">
-      <c r="A1023" s="2" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="1024" spans="1:1">
-      <c r="A1024" s="2" t="s">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="1025" spans="1:1">
-      <c r="A1025" s="2" t="s">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="1026" spans="1:1">
-      <c r="A1026" s="2" t="s">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="1027" spans="1:1">
-      <c r="A1027" s="2" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="1028" spans="1:1">
-      <c r="A1028" s="2" t="s">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="1029" spans="1:1">
-      <c r="A1029" s="2" t="s">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="1030" spans="1:1">
-      <c r="A1030" s="2" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="1031" spans="1:1">
-      <c r="A1031" s="2" t="s">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="1032" spans="1:1">
-      <c r="A1032" s="2" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="1033" spans="1:1">
-      <c r="A1033" s="2" t="s">
-        <v>1032</v>
-      </c>
-    </row>
-    <row r="1034" spans="1:1">
-      <c r="A1034" s="2" t="s">
-        <v>1033</v>
-      </c>
-    </row>
-    <row r="1035" spans="1:1">
-      <c r="A1035" s="2" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="1036" spans="1:1">
-      <c r="A1036" s="2" t="s">
-        <v>1035</v>
-      </c>
-    </row>
-    <row r="1037" spans="1:1">
-      <c r="A1037" s="2" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="1038" spans="1:1">
-      <c r="A1038" s="2" t="s">
-        <v>1037</v>
-      </c>
-    </row>
-    <row r="1039" spans="1:1">
-      <c r="A1039" s="2" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="1040" spans="1:1">
-      <c r="A1040" s="2" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="1041" spans="1:1">
-      <c r="A1041" s="2" t="s">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="1042" spans="1:1">
-      <c r="A1042" s="2" t="s">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="1043" spans="1:1">
-      <c r="A1043" s="2" t="s">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="1044" spans="1:1">
-      <c r="A1044" s="2" t="s">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="1045" spans="1:1">
-      <c r="A1045" s="2" t="s">
-        <v>1044</v>
-      </c>
-    </row>
-    <row r="1046" spans="1:1">
-      <c r="A1046" s="2" t="s">
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="1047" spans="1:1">
-      <c r="A1047" s="2" t="s">
-        <v>1046</v>
-      </c>
-    </row>
-    <row r="1048" spans="1:1">
-      <c r="A1048" s="2" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="1049" spans="1:1">
-      <c r="A1049" s="2" t="s">
-        <v>1048</v>
-      </c>
-    </row>
-    <row r="1050" spans="1:1">
-      <c r="A1050" s="2" t="s">
-        <v>1049</v>
-      </c>
-    </row>
-    <row r="1051" spans="1:1">
-      <c r="A1051" s="2" t="s">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="1052" spans="1:1">
-      <c r="A1052" s="2" t="s">
-        <v>1051</v>
-      </c>
-    </row>
-    <row r="1053" spans="1:1">
-      <c r="A1053" s="2" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="1054" spans="1:1">
-      <c r="A1054" s="2" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="1055" spans="1:1">
-      <c r="A1055" s="2" t="s">
-        <v>1054</v>
-      </c>
-    </row>
-    <row r="1056" spans="1:1">
-      <c r="A1056" s="2" t="s">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="1057" spans="1:1">
-      <c r="A1057" s="2" t="s">
-        <v>1056</v>
-      </c>
-    </row>
-    <row r="1058" spans="1:1">
-      <c r="A1058" s="2" t="s">
-        <v>1057</v>
-      </c>
-    </row>
-    <row r="1059" spans="1:1">
-      <c r="A1059" s="2" t="s">
-        <v>1058</v>
-      </c>
-    </row>
-    <row r="1060" spans="1:1">
-      <c r="A1060" s="2" t="s">
-        <v>1059</v>
-      </c>
-    </row>
-    <row r="1061" spans="1:1">
-      <c r="A1061" s="2" t="s">
-        <v>1060</v>
-      </c>
-    </row>
-    <row r="1062" spans="1:1">
-      <c r="A1062" s="2" t="s">
-        <v>1061</v>
-      </c>
-    </row>
-    <row r="1063" spans="1:1">
-      <c r="A1063" s="2" t="s">
-        <v>1062</v>
-      </c>
-    </row>
-    <row r="1064" spans="1:1">
-      <c r="A1064" s="2" t="s">
-        <v>1063</v>
-      </c>
-    </row>
-    <row r="1065" spans="1:1">
-      <c r="A1065" s="2" t="s">
-        <v>1064</v>
-      </c>
-    </row>
-    <row r="1066" spans="1:1">
-      <c r="A1066" s="2" t="s">
-        <v>1065</v>
-      </c>
-    </row>
-    <row r="1067" spans="1:1">
-      <c r="A1067" s="2" t="s">
-        <v>1066</v>
-      </c>
-    </row>
-    <row r="1068" spans="1:1">
-      <c r="A1068" s="2" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="1069" spans="1:1">
-      <c r="A1069" s="2" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="1070" spans="1:1">
-      <c r="A1070" s="2" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="1071" spans="1:1">
-      <c r="A1071" s="2" t="s">
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="1072" spans="1:1">
-      <c r="A1072" s="2" t="s">
-        <v>1071</v>
-      </c>
-    </row>
-    <row r="1073" spans="1:1">
-      <c r="A1073" s="2" t="s">
-        <v>1072</v>
-      </c>
-    </row>
-    <row r="1074" spans="1:1">
-      <c r="A1074" s="2" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="1075" spans="1:1">
-      <c r="A1075" s="2" t="s">
-        <v>1074</v>
-      </c>
-    </row>
-    <row r="1076" spans="1:1">
-      <c r="A1076" s="2" t="s">
-        <v>1075</v>
-      </c>
-    </row>
-    <row r="1077" spans="1:1">
-      <c r="A1077" s="2" t="s">
-        <v>1076</v>
-      </c>
-    </row>
-    <row r="1078" spans="1:1">
-      <c r="A1078" s="2" t="s">
-        <v>1077</v>
-      </c>
-    </row>
-    <row r="1079" spans="1:1">
-      <c r="A1079" s="2" t="s">
-        <v>1078</v>
-      </c>
-    </row>
-    <row r="1080" spans="1:1">
-      <c r="A1080" s="2" t="s">
-        <v>1079</v>
-      </c>
-    </row>
-    <row r="1081" spans="1:1">
-      <c r="A1081" s="2" t="s">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="1082" spans="1:1">
-      <c r="A1082" s="2" t="s">
-        <v>1081</v>
-      </c>
-    </row>
-    <row r="1083" spans="1:1">
-      <c r="A1083" s="2" t="s">
-        <v>1082</v>
-      </c>
-    </row>
-    <row r="1084" spans="1:1">
-      <c r="A1084" s="2" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="1085" spans="1:1">
-      <c r="A1085" s="2" t="s">
-        <v>1084</v>
-      </c>
-    </row>
-    <row r="1086" spans="1:1">
-      <c r="A1086" s="2" t="s">
-        <v>1085</v>
-      </c>
-    </row>
-    <row r="1087" spans="1:1">
-      <c r="A1087" s="2" t="s">
-        <v>1086</v>
-      </c>
-    </row>
-    <row r="1088" spans="1:1">
-      <c r="A1088" s="2" t="s">
-        <v>1087</v>
-      </c>
-    </row>
-    <row r="1089" spans="1:1">
-      <c r="A1089" s="2" t="s">
-        <v>1088</v>
-      </c>
-    </row>
-    <row r="1090" spans="1:1">
-      <c r="A1090" s="2" t="s">
-        <v>1089</v>
-      </c>
-    </row>
-    <row r="1091" spans="1:1">
-      <c r="A1091" s="2" t="s">
-        <v>1090</v>
       </c>
     </row>
   </sheetData>
